--- a/SBTF_data/ml4rt_output/trained_models/m1/error_estimates.xlsx
+++ b/SBTF_data/ml4rt_output/trained_models/m1/error_estimates.xlsx
@@ -528,10 +528,10 @@
         <v>7575860.082751503</v>
       </c>
       <c r="E2" t="n">
-        <v>422981.8654882026</v>
+        <v>422955.7633110199</v>
       </c>
       <c r="F2" t="n">
-        <v>7575773.078634776</v>
+        <v>7575736.000500998</v>
       </c>
       <c r="G2" t="n">
         <v>1</v>
@@ -551,13 +551,13 @@
         <v>186.1597965033725</v>
       </c>
       <c r="L2" t="n">
-        <v>-148.4557860210189</v>
+        <v>-174.557963203697</v>
       </c>
       <c r="M2" t="n">
-        <v>-87.00411672703922</v>
+        <v>-124.0822505056858</v>
       </c>
       <c r="N2" t="n">
-        <v>172.0721846510086</v>
+        <v>214.1655607430359</v>
       </c>
       <c r="O2" t="n">
         <v>261.8899907927122</v>
@@ -577,10 +577,10 @@
         <v>7575860.082751503</v>
       </c>
       <c r="E3" t="n">
-        <v>422982.9750392978</v>
+        <v>422949.9830647411</v>
       </c>
       <c r="F3" t="n">
-        <v>7575795.75722741</v>
+        <v>7575726.805388341</v>
       </c>
       <c r="G3" t="n">
         <v>1</v>
@@ -600,13 +600,13 @@
         <v>186.1597965033725</v>
       </c>
       <c r="L3" t="n">
-        <v>-147.3462349257898</v>
+        <v>-180.3382094824919</v>
       </c>
       <c r="M3" t="n">
-        <v>-64.32552409358323</v>
+        <v>-133.2773631624877</v>
       </c>
       <c r="N3" t="n">
-        <v>160.7752655003878</v>
+        <v>224.2425591427657</v>
       </c>
       <c r="O3" t="n">
         <v>261.8899907927122</v>
@@ -626,10 +626,10 @@
         <v>7565713.392715272</v>
       </c>
       <c r="E4" t="n">
-        <v>427310.7495629964</v>
+        <v>427286.9056827969</v>
       </c>
       <c r="F4" t="n">
-        <v>7565731.445189342</v>
+        <v>7565686.378919438</v>
       </c>
       <c r="G4" t="n">
         <v>3</v>
@@ -649,13 +649,13 @@
         <v>200.9395686058948</v>
       </c>
       <c r="L4" t="n">
-        <v>-10.71251923637465</v>
+        <v>-34.55639943591086</v>
       </c>
       <c r="M4" t="n">
-        <v>18.05247406940907</v>
+        <v>-27.013795834966</v>
       </c>
       <c r="N4" t="n">
-        <v>20.99166235476323</v>
+        <v>43.86216943320801</v>
       </c>
       <c r="O4" t="n">
         <v>208.0969103936671</v>
@@ -675,10 +675,10 @@
         <v>7565713.392715272</v>
       </c>
       <c r="E5" t="n">
-        <v>427256.4252292818</v>
+        <v>427229.0448017148</v>
       </c>
       <c r="F5" t="n">
-        <v>7565795.261978748</v>
+        <v>7565754.805114593</v>
       </c>
       <c r="G5" t="n">
         <v>3</v>
@@ -698,13 +698,13 @@
         <v>200.9395686058948</v>
       </c>
       <c r="L5" t="n">
-        <v>-65.03685295098694</v>
+        <v>-92.41728051798418</v>
       </c>
       <c r="M5" t="n">
-        <v>81.86926347576082</v>
+        <v>41.41239932086319</v>
       </c>
       <c r="N5" t="n">
-        <v>104.5579673857131</v>
+        <v>101.2716177211089</v>
       </c>
       <c r="O5" t="n">
         <v>208.0969103936671</v>
@@ -724,10 +724,10 @@
         <v>7565713.392715272</v>
       </c>
       <c r="E6" t="n">
-        <v>427306.6747666416</v>
+        <v>427280.3629798988</v>
       </c>
       <c r="F6" t="n">
-        <v>7565734.852365912</v>
+        <v>7565682.278389777</v>
       </c>
       <c r="G6" t="n">
         <v>3</v>
@@ -747,13 +747,13 @@
         <v>200.9395686058948</v>
       </c>
       <c r="L6" t="n">
-        <v>-14.78731559123844</v>
+        <v>-41.09910233406117</v>
       </c>
       <c r="M6" t="n">
-        <v>21.45965063944459</v>
+        <v>-31.11432549543679</v>
       </c>
       <c r="N6" t="n">
-        <v>26.06110718987008</v>
+        <v>51.54839923510351</v>
       </c>
       <c r="O6" t="n">
         <v>208.0969103936671</v>
@@ -773,10 +773,10 @@
         <v>7565713.392715272</v>
       </c>
       <c r="E7" t="n">
-        <v>427204.4930571931</v>
+        <v>427289.5014723786</v>
       </c>
       <c r="F7" t="n">
-        <v>7565691.368180543</v>
+        <v>7565683.334926035</v>
       </c>
       <c r="G7" t="n">
         <v>3</v>
@@ -796,13 +796,13 @@
         <v>200.9395686058948</v>
       </c>
       <c r="L7" t="n">
-        <v>-116.9690250397543</v>
+        <v>-31.9606098542572</v>
       </c>
       <c r="M7" t="n">
-        <v>-22.02453472930938</v>
+        <v>-30.05778923723847</v>
       </c>
       <c r="N7" t="n">
-        <v>119.0245056649816</v>
+        <v>43.87426667291763</v>
       </c>
       <c r="O7" t="n">
         <v>208.0969103936671</v>
@@ -822,10 +822,10 @@
         <v>7565713.392715272</v>
       </c>
       <c r="E8" t="n">
-        <v>427628.9146568934</v>
+        <v>427607.4699930269</v>
       </c>
       <c r="F8" t="n">
-        <v>7565775.612211826</v>
+        <v>7565715.770402539</v>
       </c>
       <c r="G8" t="n">
         <v>3</v>
@@ -845,13 +845,13 @@
         <v>200.9395686058948</v>
       </c>
       <c r="L8" t="n">
-        <v>307.4525746605359</v>
+        <v>286.0079107941128</v>
       </c>
       <c r="M8" t="n">
-        <v>62.21949655376375</v>
+        <v>2.377687266096473</v>
       </c>
       <c r="N8" t="n">
-        <v>313.6851150705054</v>
+        <v>286.0177939107086</v>
       </c>
       <c r="O8" t="n">
         <v>208.0969103936671</v>
@@ -871,10 +871,10 @@
         <v>7565713.392715272</v>
       </c>
       <c r="E9" t="n">
-        <v>427262.9952214452</v>
+        <v>427234.6863790347</v>
       </c>
       <c r="F9" t="n">
-        <v>7565725.4603507</v>
+        <v>7565684.60266802</v>
       </c>
       <c r="G9" t="n">
         <v>3</v>
@@ -894,13 +894,13 @@
         <v>200.9395686058948</v>
       </c>
       <c r="L9" t="n">
-        <v>-58.46686078765197</v>
+        <v>-86.77570319810184</v>
       </c>
       <c r="M9" t="n">
-        <v>12.06763542722911</v>
+        <v>-28.79004725255072</v>
       </c>
       <c r="N9" t="n">
-        <v>59.69925992143613</v>
+        <v>91.42696257849303</v>
       </c>
       <c r="O9" t="n">
         <v>208.0969103936671</v>
@@ -920,10 +920,10 @@
         <v>7565804.191765676</v>
       </c>
       <c r="E10" t="n">
-        <v>427694.1434966961</v>
+        <v>427674.5162540557</v>
       </c>
       <c r="F10" t="n">
-        <v>7565616.253975239</v>
+        <v>7565585.154214087</v>
       </c>
       <c r="G10" t="n">
         <v>1</v>
@@ -943,13 +943,13 @@
         <v>626.5592236761004</v>
       </c>
       <c r="L10" t="n">
-        <v>318.1861892640591</v>
+        <v>298.5589466236415</v>
       </c>
       <c r="M10" t="n">
-        <v>-187.9377904376015</v>
+        <v>-219.0375515893102</v>
       </c>
       <c r="N10" t="n">
-        <v>369.5444007327827</v>
+        <v>370.2902829068813</v>
       </c>
       <c r="O10" t="n">
         <v>726.3905669176061</v>
@@ -969,10 +969,10 @@
         <v>7565804.191765676</v>
       </c>
       <c r="E11" t="n">
-        <v>427677.9004760397</v>
+        <v>427640.0782864571</v>
       </c>
       <c r="F11" t="n">
-        <v>7565629.344566278</v>
+        <v>7565647.047609595</v>
       </c>
       <c r="G11" t="n">
         <v>1</v>
@@ -992,13 +992,13 @@
         <v>626.5592236761004</v>
       </c>
       <c r="L11" t="n">
-        <v>301.9431686077151</v>
+        <v>264.1209790250286</v>
       </c>
       <c r="M11" t="n">
-        <v>-174.8471993980929</v>
+        <v>-157.144156081602</v>
       </c>
       <c r="N11" t="n">
-        <v>348.9143450851849</v>
+        <v>307.3339833987425</v>
       </c>
       <c r="O11" t="n">
         <v>726.3905669176061</v>
@@ -1018,10 +1018,10 @@
         <v>7565517.838814734</v>
       </c>
       <c r="E12" t="n">
-        <v>427316.2937146372</v>
+        <v>427293.9549792619</v>
       </c>
       <c r="F12" t="n">
-        <v>7565735.555465844</v>
+        <v>7565729.17337096</v>
       </c>
       <c r="G12" t="n">
         <v>3</v>
@@ -1041,13 +1041,13 @@
         <v>5.385668066951136</v>
       </c>
       <c r="L12" t="n">
-        <v>33.46366016642423</v>
+        <v>11.12492479110369</v>
       </c>
       <c r="M12" t="n">
-        <v>217.7166511109099</v>
+        <v>211.3345562266186</v>
       </c>
       <c r="N12" t="n">
-        <v>220.273368164841</v>
+        <v>211.6271688775086</v>
       </c>
       <c r="O12" t="n">
         <v>92.89570646527693</v>
@@ -1067,10 +1067,10 @@
         <v>7565517.838814734</v>
       </c>
       <c r="E13" t="n">
-        <v>427321.5422013244</v>
+        <v>427294.3408434323</v>
       </c>
       <c r="F13" t="n">
-        <v>7565642.541857012</v>
+        <v>7565645.567859516</v>
       </c>
       <c r="G13" t="n">
         <v>3</v>
@@ -1090,13 +1090,13 @@
         <v>5.385668066951136</v>
       </c>
       <c r="L13" t="n">
-        <v>38.71214685356244</v>
+        <v>11.51078896148829</v>
       </c>
       <c r="M13" t="n">
-        <v>124.7030422780663</v>
+        <v>127.7290447829291</v>
       </c>
       <c r="N13" t="n">
-        <v>130.5736538028134</v>
+        <v>128.2466652341317</v>
       </c>
       <c r="O13" t="n">
         <v>92.89570646527693</v>
@@ -1116,10 +1116,10 @@
         <v>7551032.363539526</v>
       </c>
       <c r="E14" t="n">
-        <v>436702.1624064577</v>
+        <v>436684.5127612623</v>
       </c>
       <c r="F14" t="n">
-        <v>7550814.628150972</v>
+        <v>7550796.43380321</v>
       </c>
       <c r="G14" t="n">
         <v>1</v>
@@ -1139,13 +1139,13 @@
         <v>-281.5523264734074</v>
       </c>
       <c r="L14" t="n">
-        <v>-136.6746877597179</v>
+        <v>-154.3243329551187</v>
       </c>
       <c r="M14" t="n">
-        <v>-217.7353885546327</v>
+        <v>-235.9297363162041</v>
       </c>
       <c r="N14" t="n">
-        <v>257.0771668259421</v>
+        <v>281.9199180978101</v>
       </c>
       <c r="O14" t="n">
         <v>333.0864405745596</v>
@@ -1165,10 +1165,10 @@
         <v>7551032.363539526</v>
       </c>
       <c r="E15" t="n">
-        <v>436560.1879136495</v>
+        <v>436576.7368575036</v>
       </c>
       <c r="F15" t="n">
-        <v>7550735.559304249</v>
+        <v>7550717.391566324</v>
       </c>
       <c r="G15" t="n">
         <v>1</v>
@@ -1188,13 +1188,13 @@
         <v>-281.5523264734074</v>
       </c>
       <c r="L15" t="n">
-        <v>-278.6491805678816</v>
+        <v>-262.1002367138281</v>
       </c>
       <c r="M15" t="n">
-        <v>-296.8042352767661</v>
+        <v>-314.9719732021913</v>
       </c>
       <c r="N15" t="n">
-        <v>407.109469196404</v>
+        <v>409.760757013561</v>
       </c>
       <c r="O15" t="n">
         <v>333.0864405745596</v>
@@ -1214,10 +1214,10 @@
         <v>7551032.363539526</v>
       </c>
       <c r="E16" t="n">
-        <v>436708.5034078109</v>
+        <v>436691.7177582255</v>
       </c>
       <c r="F16" t="n">
-        <v>7550779.604009166</v>
+        <v>7550772.582132048</v>
       </c>
       <c r="G16" t="n">
         <v>1</v>
@@ -1237,13 +1237,13 @@
         <v>-281.5523264734074</v>
       </c>
       <c r="L16" t="n">
-        <v>-130.3336864064913</v>
+        <v>-147.1193359919125</v>
       </c>
       <c r="M16" t="n">
-        <v>-252.7595303598791</v>
+        <v>-259.7814074782655</v>
       </c>
       <c r="N16" t="n">
-        <v>284.3839833746836</v>
+        <v>298.5472805002415</v>
       </c>
       <c r="O16" t="n">
         <v>333.0864405745596</v>
@@ -1263,10 +1263,10 @@
         <v>7551032.363539526</v>
       </c>
       <c r="E17" t="n">
-        <v>436595.499286993</v>
+        <v>436589.4432752226</v>
       </c>
       <c r="F17" t="n">
-        <v>7550832.199438527</v>
+        <v>7550799.524068587</v>
       </c>
       <c r="G17" t="n">
         <v>1</v>
@@ -1286,13 +1286,13 @@
         <v>-281.5523264734074</v>
       </c>
       <c r="L17" t="n">
-        <v>-243.3378072244232</v>
+        <v>-249.3938189948094</v>
       </c>
       <c r="M17" t="n">
-        <v>-200.1641009990126</v>
+        <v>-232.8394709387794</v>
       </c>
       <c r="N17" t="n">
-        <v>315.0856324136876</v>
+        <v>341.1912897186364</v>
       </c>
       <c r="O17" t="n">
         <v>333.0864405745596</v>
@@ -1312,10 +1312,10 @@
         <v>7551065.768086701</v>
       </c>
       <c r="E18" t="n">
-        <v>436874.0169200346</v>
+        <v>436832.7087185699</v>
       </c>
       <c r="F18" t="n">
-        <v>7551578.346728831</v>
+        <v>7551514.544421439</v>
       </c>
       <c r="G18" t="n">
         <v>1</v>
@@ -1335,13 +1335,13 @@
         <v>-287.5907922992483</v>
       </c>
       <c r="L18" t="n">
-        <v>-123.5964749989798</v>
+        <v>-164.9046764636296</v>
       </c>
       <c r="M18" t="n">
-        <v>512.5786421298981</v>
+        <v>448.7763347383589</v>
       </c>
       <c r="N18" t="n">
-        <v>527.269336297782</v>
+        <v>478.1147884564646</v>
       </c>
       <c r="O18" t="n">
         <v>288.3670661137583</v>
@@ -1361,10 +1361,10 @@
         <v>7551065.768086701</v>
       </c>
       <c r="E19" t="n">
-        <v>436774.0061673736</v>
+        <v>436755.4305296992</v>
       </c>
       <c r="F19" t="n">
-        <v>7551719.082987804</v>
+        <v>7551673.392618419</v>
       </c>
       <c r="G19" t="n">
         <v>2</v>
@@ -1384,13 +1384,13 @@
         <v>-267.8692857990973</v>
       </c>
       <c r="L19" t="n">
-        <v>-223.6072276599589</v>
+        <v>-242.1828653343837</v>
       </c>
       <c r="M19" t="n">
-        <v>653.3149011032656</v>
+        <v>607.624531717971</v>
       </c>
       <c r="N19" t="n">
-        <v>690.5219419144785</v>
+        <v>654.1101679434862</v>
       </c>
       <c r="O19" t="n">
         <v>322.1431880729987</v>
@@ -1410,10 +1410,10 @@
         <v>7551065.768086701</v>
       </c>
       <c r="E20" t="n">
-        <v>436807.3947604526</v>
+        <v>436758.8408544239</v>
       </c>
       <c r="F20" t="n">
-        <v>7551655.282947191</v>
+        <v>7551602.763666041</v>
       </c>
       <c r="G20" t="n">
         <v>2</v>
@@ -1433,13 +1433,13 @@
         <v>-267.8692857990973</v>
       </c>
       <c r="L20" t="n">
-        <v>-190.2186345810187</v>
+        <v>-238.7725406096433</v>
       </c>
       <c r="M20" t="n">
-        <v>589.514860490337</v>
+        <v>536.9955793404952</v>
       </c>
       <c r="N20" t="n">
-        <v>619.4440246550197</v>
+        <v>587.6874836002702</v>
       </c>
       <c r="O20" t="n">
         <v>322.1431880729987</v>
@@ -1459,10 +1459,10 @@
         <v>7551065.768086701</v>
       </c>
       <c r="E21" t="n">
-        <v>436748.3802052436</v>
+        <v>436724.1444282327</v>
       </c>
       <c r="F21" t="n">
-        <v>7551845.944157218</v>
+        <v>7551825.580386611</v>
       </c>
       <c r="G21" t="n">
         <v>2</v>
@@ -1482,13 +1482,13 @@
         <v>-267.8692857990973</v>
       </c>
       <c r="L21" t="n">
-        <v>-249.2331897899858</v>
+        <v>-273.4689668008941</v>
       </c>
       <c r="M21" t="n">
-        <v>780.176070516929</v>
+        <v>759.8122999100015</v>
       </c>
       <c r="N21" t="n">
-        <v>819.018854422856</v>
+        <v>807.5270935997594</v>
       </c>
       <c r="O21" t="n">
         <v>322.1431880729987</v>
@@ -1508,10 +1508,10 @@
         <v>7551065.768086701</v>
       </c>
       <c r="E22" t="n">
-        <v>436926.4457315421</v>
+        <v>436928.3106365448</v>
       </c>
       <c r="F22" t="n">
-        <v>7552131.032452132</v>
+        <v>7552118.631239241</v>
       </c>
       <c r="G22" t="n">
         <v>1</v>
@@ -1531,13 +1531,13 @@
         <v>-287.5907922992483</v>
       </c>
       <c r="L22" t="n">
-        <v>-71.16766349150566</v>
+        <v>-69.30275848874589</v>
       </c>
       <c r="M22" t="n">
-        <v>1065.264365430921</v>
+        <v>1052.863152540289</v>
       </c>
       <c r="N22" t="n">
-        <v>1067.638986073375</v>
+        <v>1055.141549893295</v>
       </c>
       <c r="O22" t="n">
         <v>288.3670661137583</v>
@@ -1557,10 +1557,10 @@
         <v>7551065.768086701</v>
       </c>
       <c r="E23" t="n">
-        <v>436904.7589818392</v>
+        <v>436863.4423409306</v>
       </c>
       <c r="F23" t="n">
-        <v>7551786.233137541</v>
+        <v>7551731.141653069</v>
       </c>
       <c r="G23" t="n">
         <v>1</v>
@@ -1580,13 +1580,13 @@
         <v>-287.5907922992483</v>
       </c>
       <c r="L23" t="n">
-        <v>-92.85441319440724</v>
+        <v>-134.1710541030043</v>
       </c>
       <c r="M23" t="n">
-        <v>720.465050839819</v>
+        <v>665.3735663685948</v>
       </c>
       <c r="N23" t="n">
-        <v>726.4240025847856</v>
+        <v>678.766421223954</v>
       </c>
       <c r="O23" t="n">
         <v>288.3670661137583</v>
@@ -1606,10 +1606,10 @@
         <v>7576703.444898035</v>
       </c>
       <c r="E24" t="n">
-        <v>424955.1603832618</v>
+        <v>425020.4130171596</v>
       </c>
       <c r="F24" t="n">
-        <v>7576735.352370859</v>
+        <v>7576653.689519363</v>
       </c>
       <c r="G24" t="n">
         <v>1</v>
@@ -1629,13 +1629,13 @@
         <v>292.8544160351157</v>
       </c>
       <c r="L24" t="n">
-        <v>329.633141580387</v>
+        <v>394.8857754781493</v>
       </c>
       <c r="M24" t="n">
-        <v>31.9074728237465</v>
+        <v>-49.75537867285311</v>
       </c>
       <c r="N24" t="n">
-        <v>331.1738136540291</v>
+        <v>398.0080066805922</v>
       </c>
       <c r="O24" t="n">
         <v>429.4856292461126</v>
@@ -1655,10 +1655,10 @@
         <v>7576703.444898035</v>
       </c>
       <c r="E25" t="n">
-        <v>425012.529082359</v>
+        <v>425035.3867447111</v>
       </c>
       <c r="F25" t="n">
-        <v>7576769.885324051</v>
+        <v>7576919.428451465</v>
       </c>
       <c r="G25" t="n">
         <v>1</v>
@@ -1678,13 +1678,13 @@
         <v>292.8544160351157</v>
       </c>
       <c r="L25" t="n">
-        <v>387.0018406776362</v>
+        <v>409.859503029671</v>
       </c>
       <c r="M25" t="n">
-        <v>66.44042601529509</v>
+        <v>215.9835534300655</v>
       </c>
       <c r="N25" t="n">
-        <v>392.663666382532</v>
+        <v>463.2857731206591</v>
       </c>
       <c r="O25" t="n">
         <v>429.4856292461126</v>
@@ -1704,10 +1704,10 @@
         <v>7576781.227157662</v>
       </c>
       <c r="E26" t="n">
-        <v>425058.4425632851</v>
+        <v>424989.6923568239</v>
       </c>
       <c r="F26" t="n">
-        <v>7577539.473569086</v>
+        <v>7577502.464895373</v>
       </c>
       <c r="G26" t="n">
         <v>1</v>
@@ -1727,13 +1727,13 @@
         <v>370.6366756614298</v>
       </c>
       <c r="L26" t="n">
-        <v>556.7203629408032</v>
+        <v>487.9701564796269</v>
       </c>
       <c r="M26" t="n">
-        <v>758.2464114241302</v>
+        <v>721.237737711519</v>
       </c>
       <c r="N26" t="n">
-        <v>940.6780442587734</v>
+        <v>870.803507063437</v>
       </c>
       <c r="O26" t="n">
         <v>573.7435873526119</v>
@@ -1753,10 +1753,10 @@
         <v>7576781.227157662</v>
       </c>
       <c r="E27" t="n">
-        <v>425101.6811577636</v>
+        <v>425039.215222744</v>
       </c>
       <c r="F27" t="n">
-        <v>7577253.719924723</v>
+        <v>7577206.105174144</v>
       </c>
       <c r="G27" t="n">
         <v>1</v>
@@ -1776,13 +1776,13 @@
         <v>370.6366756614298</v>
       </c>
       <c r="L27" t="n">
-        <v>599.9589574193233</v>
+        <v>537.4930223997217</v>
       </c>
       <c r="M27" t="n">
-        <v>472.4927670611069</v>
+        <v>424.8780164821073</v>
       </c>
       <c r="N27" t="n">
-        <v>763.6754320473735</v>
+        <v>685.1423779172893</v>
       </c>
       <c r="O27" t="n">
         <v>573.7435873526119</v>
@@ -1802,10 +1802,10 @@
         <v>7576781.227157662</v>
       </c>
       <c r="E28" t="n">
-        <v>425025.4947361479</v>
+        <v>425019.1532858186</v>
       </c>
       <c r="F28" t="n">
-        <v>7577392.926007957</v>
+        <v>7577347.606397564</v>
       </c>
       <c r="G28" t="n">
         <v>1</v>
@@ -1825,13 +1825,13 @@
         <v>370.6366756614298</v>
       </c>
       <c r="L28" t="n">
-        <v>523.7725358036114</v>
+        <v>517.4310854742653</v>
       </c>
       <c r="M28" t="n">
-        <v>611.6988502955064</v>
+        <v>566.3792399019003</v>
       </c>
       <c r="N28" t="n">
-        <v>805.303143365894</v>
+        <v>767.1508141212722</v>
       </c>
       <c r="O28" t="n">
         <v>573.7435873526119</v>
@@ -1851,10 +1851,10 @@
         <v>7575707.151064353</v>
       </c>
       <c r="E29" t="n">
-        <v>423281.7684944471</v>
+        <v>423258.8079818884</v>
       </c>
       <c r="F29" t="n">
-        <v>7575804.854597056</v>
+        <v>7575806.216724677</v>
       </c>
       <c r="G29" t="n">
         <v>4</v>
@@ -1874,13 +1874,13 @@
         <v>-86.76123139681295</v>
       </c>
       <c r="L29" t="n">
-        <v>574.0772159600165</v>
+        <v>551.1167034013197</v>
       </c>
       <c r="M29" t="n">
-        <v>97.70353270322084</v>
+        <v>99.06566032394767</v>
       </c>
       <c r="N29" t="n">
-        <v>582.3320617887124</v>
+        <v>559.9496636514374</v>
       </c>
       <c r="O29" t="n">
         <v>455.3864024070871</v>
@@ -1900,10 +1900,10 @@
         <v>7575707.151064353</v>
       </c>
       <c r="E30" t="n">
-        <v>422766.7778764896</v>
+        <v>422710.5138677544</v>
       </c>
       <c r="F30" t="n">
-        <v>7575716.167895363</v>
+        <v>7575689.496124092</v>
       </c>
       <c r="G30" t="n">
         <v>3</v>
@@ -1923,13 +1923,13 @@
         <v>-214.3762193135917</v>
       </c>
       <c r="L30" t="n">
-        <v>59.08659800252644</v>
+        <v>2.822589267336298</v>
       </c>
       <c r="M30" t="n">
-        <v>9.01683100964874</v>
+        <v>-17.65494026057422</v>
       </c>
       <c r="N30" t="n">
-        <v>59.77063915476164</v>
+        <v>17.87914779223346</v>
       </c>
       <c r="O30" t="n">
         <v>426.7390258093054</v>
@@ -1949,10 +1949,10 @@
         <v>7574798.917653348</v>
       </c>
       <c r="E31" t="n">
-        <v>424751.4037794786</v>
+        <v>424736.1451109282</v>
       </c>
       <c r="F31" t="n">
-        <v>7574791.503228405</v>
+        <v>7574737.057624323</v>
       </c>
       <c r="G31" t="n">
         <v>1</v>
@@ -1972,13 +1972,13 @@
         <v>-20.88518965151161</v>
       </c>
       <c r="L31" t="n">
-        <v>-99.13879534398438</v>
+        <v>-114.3974638943328</v>
       </c>
       <c r="M31" t="n">
-        <v>-7.414424943737686</v>
+        <v>-61.86002902500331</v>
       </c>
       <c r="N31" t="n">
-        <v>99.41566496032071</v>
+        <v>130.0516933239603</v>
       </c>
       <c r="O31" t="n">
         <v>35.40923253378099</v>
@@ -1998,10 +1998,10 @@
         <v>7574798.917653348</v>
       </c>
       <c r="E32" t="n">
-        <v>424716.7617718969</v>
+        <v>424709.1721601799</v>
       </c>
       <c r="F32" t="n">
-        <v>7574778.072084077</v>
+        <v>7574714.418002777</v>
       </c>
       <c r="G32" t="n">
         <v>1</v>
@@ -2021,13 +2021,13 @@
         <v>-20.88518965151161</v>
       </c>
       <c r="L32" t="n">
-        <v>-133.7808029256994</v>
+        <v>-141.3704146426753</v>
       </c>
       <c r="M32" t="n">
-        <v>-20.84556927159429</v>
+        <v>-84.49965057149529</v>
       </c>
       <c r="N32" t="n">
-        <v>135.3951291210347</v>
+        <v>164.6990743232844</v>
       </c>
       <c r="O32" t="n">
         <v>35.40923253378099</v>
@@ -2047,10 +2047,10 @@
         <v>7574798.917653348</v>
       </c>
       <c r="E33" t="n">
-        <v>424715.0825193783</v>
+        <v>424695.5950496951</v>
       </c>
       <c r="F33" t="n">
-        <v>7574822.683890231</v>
+        <v>7574770.334769744</v>
       </c>
       <c r="G33" t="n">
         <v>1</v>
@@ -2070,13 +2070,13 @@
         <v>-20.88518965151161</v>
       </c>
       <c r="L33" t="n">
-        <v>-135.4600554442732</v>
+        <v>-154.9475251274998</v>
       </c>
       <c r="M33" t="n">
-        <v>23.76623688265681</v>
+        <v>-28.58288360387087</v>
       </c>
       <c r="N33" t="n">
-        <v>137.5291265024544</v>
+        <v>157.5617871764903</v>
       </c>
       <c r="O33" t="n">
         <v>35.40923253378099</v>
@@ -2096,10 +2096,10 @@
         <v>7574798.917653348</v>
       </c>
       <c r="E34" t="n">
-        <v>424747.4103689028</v>
+        <v>424740.0655355369</v>
       </c>
       <c r="F34" t="n">
-        <v>7574810.433485718</v>
+        <v>7574764.432596396</v>
       </c>
       <c r="G34" t="n">
         <v>1</v>
@@ -2119,13 +2119,13 @@
         <v>-20.88518965151161</v>
       </c>
       <c r="L34" t="n">
-        <v>-103.1322059197701</v>
+        <v>-110.4770392857026</v>
       </c>
       <c r="M34" t="n">
-        <v>11.51583236921579</v>
+        <v>-34.48505695257336</v>
       </c>
       <c r="N34" t="n">
-        <v>103.7731482274376</v>
+        <v>115.7341581485644</v>
       </c>
       <c r="O34" t="n">
         <v>35.40923253378099</v>
@@ -2145,10 +2145,10 @@
         <v>7574798.917653348</v>
       </c>
       <c r="E35" t="n">
-        <v>424725.2525450505</v>
+        <v>424726.8305144504</v>
       </c>
       <c r="F35" t="n">
-        <v>7574843.229984045</v>
+        <v>7574806.385914179</v>
       </c>
       <c r="G35" t="n">
         <v>1</v>
@@ -2168,13 +2168,13 @@
         <v>-20.88518965151161</v>
       </c>
       <c r="L35" t="n">
-        <v>-125.2900297720917</v>
+        <v>-123.7120603721705</v>
       </c>
       <c r="M35" t="n">
-        <v>44.31233069673181</v>
+        <v>7.468260830268264</v>
       </c>
       <c r="N35" t="n">
-        <v>132.8953506036541</v>
+        <v>123.9372776905983</v>
       </c>
       <c r="O35" t="n">
         <v>35.40923253378099</v>
@@ -2194,10 +2194,10 @@
         <v>7574798.917653348</v>
       </c>
       <c r="E36" t="n">
-        <v>424722.7435639005</v>
+        <v>424732.1612414304</v>
       </c>
       <c r="F36" t="n">
-        <v>7574894.394253649</v>
+        <v>7574848.464087551</v>
       </c>
       <c r="G36" t="n">
         <v>1</v>
@@ -2217,13 +2217,13 @@
         <v>-20.88518965151161</v>
       </c>
       <c r="L36" t="n">
-        <v>-127.7990109220846</v>
+        <v>-118.3813333921717</v>
       </c>
       <c r="M36" t="n">
-        <v>95.47660030052066</v>
+        <v>49.54643420223147</v>
       </c>
       <c r="N36" t="n">
-        <v>159.5254474922684</v>
+        <v>128.3315597889488</v>
       </c>
       <c r="O36" t="n">
         <v>35.40923253378099</v>
@@ -2243,10 +2243,10 @@
         <v>7573046.699561648</v>
       </c>
       <c r="E37" t="n">
-        <v>431537.019328007</v>
+        <v>431522.7591263998</v>
       </c>
       <c r="F37" t="n">
-        <v>7573403.880191401</v>
+        <v>7573392.98946293</v>
       </c>
       <c r="G37" t="n">
         <v>1</v>
@@ -2266,13 +2266,13 @@
         <v>519.6742706485093</v>
       </c>
       <c r="L37" t="n">
-        <v>-659.2237796660047</v>
+        <v>-673.4839812731952</v>
       </c>
       <c r="M37" t="n">
-        <v>357.1806297525764</v>
+        <v>346.289901281707</v>
       </c>
       <c r="N37" t="n">
-        <v>749.7692938148242</v>
+        <v>757.2960905493227</v>
       </c>
       <c r="O37" t="n">
         <v>825.0477664764331</v>
@@ -2292,10 +2292,10 @@
         <v>7573046.699561648</v>
       </c>
       <c r="E38" t="n">
-        <v>431736.1391718659</v>
+        <v>431738.3645319673</v>
       </c>
       <c r="F38" t="n">
-        <v>7572921.094862483</v>
+        <v>7572848.146119822</v>
       </c>
       <c r="G38" t="n">
         <v>3</v>
@@ -2315,13 +2315,13 @@
         <v>354.6701769813274</v>
       </c>
       <c r="L38" t="n">
-        <v>-460.1039358070702</v>
+        <v>-457.8785757057485</v>
       </c>
       <c r="M38" t="n">
-        <v>-125.6046991655603</v>
+        <v>-198.5534418262541</v>
       </c>
       <c r="N38" t="n">
-        <v>476.9404283530885</v>
+        <v>499.0754044744908</v>
       </c>
       <c r="O38" t="n">
         <v>878.9593237422193</v>
@@ -2341,10 +2341,10 @@
         <v>7573046.699561648</v>
       </c>
       <c r="E39" t="n">
-        <v>432443.2006911005</v>
+        <v>432552.0376733787</v>
       </c>
       <c r="F39" t="n">
-        <v>7573226.324703237</v>
+        <v>7573195.607734468</v>
       </c>
       <c r="G39" t="n">
         <v>1</v>
@@ -2364,13 +2364,13 @@
         <v>33.49977064784616</v>
       </c>
       <c r="L39" t="n">
-        <v>246.9575834274874</v>
+        <v>355.7945657056989</v>
       </c>
       <c r="M39" t="n">
-        <v>179.625141588971</v>
+        <v>148.9081728197634</v>
       </c>
       <c r="N39" t="n">
-        <v>305.3739338961371</v>
+        <v>385.6986089140424</v>
       </c>
       <c r="O39" t="n">
         <v>655.957721059259</v>
@@ -2390,10 +2390,10 @@
         <v>7573044.843771219</v>
       </c>
       <c r="E40" t="n">
-        <v>432292.2460608935</v>
+        <v>432366.1267782443</v>
       </c>
       <c r="F40" t="n">
-        <v>7572842.197475153</v>
+        <v>7572814.05445861</v>
       </c>
       <c r="G40" t="n">
         <v>1</v>
@@ -2413,13 +2413,13 @@
         <v>508.9806992188096</v>
       </c>
       <c r="L40" t="n">
-        <v>64.08551712112967</v>
+        <v>137.96623447194</v>
       </c>
       <c r="M40" t="n">
-        <v>-202.646296066232</v>
+        <v>-230.7893126094714</v>
       </c>
       <c r="N40" t="n">
-        <v>212.5381726044655</v>
+        <v>268.8835968762666</v>
       </c>
       <c r="O40" t="n">
         <v>1256.392743841148</v>
@@ -2439,10 +2439,10 @@
         <v>7573044.843771219</v>
       </c>
       <c r="E41" t="n">
-        <v>432309.8933454797</v>
+        <v>432374.6704068352</v>
       </c>
       <c r="F41" t="n">
-        <v>7572763.977198135</v>
+        <v>7572745.108991642</v>
       </c>
       <c r="G41" t="n">
         <v>1</v>
@@ -2462,13 +2462,13 @@
         <v>508.9806992188096</v>
       </c>
       <c r="L41" t="n">
-        <v>81.73280170734506</v>
+        <v>146.5098630627617</v>
       </c>
       <c r="M41" t="n">
-        <v>-280.8665730841458</v>
+        <v>-299.734779576771</v>
       </c>
       <c r="N41" t="n">
-        <v>292.5171494989037</v>
+        <v>333.6256555821279</v>
       </c>
       <c r="O41" t="n">
         <v>1256.392743841148</v>
@@ -2488,10 +2488,10 @@
         <v>7573044.843771219</v>
       </c>
       <c r="E42" t="n">
-        <v>431515.8959420681</v>
+        <v>431526.0915398095</v>
       </c>
       <c r="F42" t="n">
-        <v>7572588.657487689</v>
+        <v>7572515.919066191</v>
       </c>
       <c r="G42" t="n">
         <v>2</v>
@@ -2511,13 +2511,13 @@
         <v>513.3995897192508</v>
       </c>
       <c r="L42" t="n">
-        <v>-712.2646017042571</v>
+        <v>-702.0690039629117</v>
       </c>
       <c r="M42" t="n">
-        <v>-456.1862835306674</v>
+        <v>-528.9247050285339</v>
       </c>
       <c r="N42" t="n">
-        <v>845.8290537232961</v>
+        <v>879.012076091675</v>
       </c>
       <c r="O42" t="n">
         <v>1045.448340050612</v>
@@ -2537,10 +2537,10 @@
         <v>7573044.843771219</v>
       </c>
       <c r="E43" t="n">
-        <v>431808.9233946558</v>
+        <v>431827.4234165767</v>
       </c>
       <c r="F43" t="n">
-        <v>7573043.996641443</v>
+        <v>7572992.286123392</v>
       </c>
       <c r="G43" t="n">
         <v>4</v>
@@ -2560,13 +2560,13 @@
         <v>273.8733717191499</v>
       </c>
       <c r="L43" t="n">
-        <v>-419.2371491166414</v>
+        <v>-400.7371271956945</v>
       </c>
       <c r="M43" t="n">
-        <v>-0.8471297761425376</v>
+        <v>-52.55764782708138</v>
       </c>
       <c r="N43" t="n">
-        <v>419.2380049903713</v>
+        <v>404.1689639967098</v>
       </c>
       <c r="O43" t="n">
         <v>960.9726123950555</v>
@@ -2586,10 +2586,10 @@
         <v>7573005.691870436</v>
       </c>
       <c r="E44" t="n">
-        <v>431813.9673748766</v>
+        <v>431869.1502778514</v>
       </c>
       <c r="F44" t="n">
-        <v>7572970.538571608</v>
+        <v>7572899.134114417</v>
       </c>
       <c r="G44" t="n">
         <v>4</v>
@@ -2609,13 +2609,13 @@
         <v>234.7214709359687</v>
       </c>
       <c r="L44" t="n">
-        <v>-370.2659063212341</v>
+        <v>-315.083003346459</v>
       </c>
       <c r="M44" t="n">
-        <v>-35.15329882781953</v>
+        <v>-106.5577560188249</v>
       </c>
       <c r="N44" t="n">
-        <v>371.9309019191103</v>
+        <v>332.6136713449886</v>
       </c>
       <c r="O44" t="n">
         <v>908.0533939333675</v>
@@ -2635,10 +2635,10 @@
         <v>7573005.691870436</v>
       </c>
       <c r="E45" t="n">
-        <v>431775.3788672482</v>
+        <v>431808.9796740098</v>
       </c>
       <c r="F45" t="n">
-        <v>7572933.992030072</v>
+        <v>7572846.442894444</v>
       </c>
       <c r="G45" t="n">
         <v>3</v>
@@ -2658,13 +2658,13 @@
         <v>313.662485769329</v>
       </c>
       <c r="L45" t="n">
-        <v>-408.8544139495934</v>
+        <v>-375.2536071880022</v>
       </c>
       <c r="M45" t="n">
-        <v>-71.69984036404639</v>
+        <v>-159.2489759922028</v>
       </c>
       <c r="N45" t="n">
-        <v>415.0937230485366</v>
+        <v>407.6463001943874</v>
       </c>
       <c r="O45" t="n">
         <v>852.0503114849387</v>
@@ -2684,10 +2684,10 @@
         <v>7573005.691870436</v>
       </c>
       <c r="E46" t="n">
-        <v>431995.3684640482</v>
+        <v>431987.5702608453</v>
       </c>
       <c r="F46" t="n">
-        <v>7572980.977556106</v>
+        <v>7572970.163007345</v>
       </c>
       <c r="G46" t="n">
         <v>4</v>
@@ -2707,13 +2707,13 @@
         <v>234.7214709359687</v>
       </c>
       <c r="L46" t="n">
-        <v>-188.8648171496461</v>
+        <v>-196.6630203525419</v>
       </c>
       <c r="M46" t="n">
-        <v>-24.71431433036923</v>
+        <v>-35.52886309102178</v>
       </c>
       <c r="N46" t="n">
-        <v>190.4749760199212</v>
+        <v>199.8465503498244</v>
       </c>
       <c r="O46" t="n">
         <v>908.0533939333675</v>
@@ -2733,10 +2733,10 @@
         <v>7573005.691870436</v>
       </c>
       <c r="E47" t="n">
-        <v>431750.1167166306</v>
+        <v>431735.4176075605</v>
       </c>
       <c r="F47" t="n">
-        <v>7572949.359198144</v>
+        <v>7572884.56264738</v>
       </c>
       <c r="G47" t="n">
         <v>4</v>
@@ -2756,13 +2756,13 @@
         <v>234.7214709359687</v>
       </c>
       <c r="L47" t="n">
-        <v>-434.1165645672008</v>
+        <v>-448.8156736373203</v>
       </c>
       <c r="M47" t="n">
-        <v>-56.33267229236662</v>
+        <v>-121.1292230561376</v>
       </c>
       <c r="N47" t="n">
-        <v>437.7562810505725</v>
+        <v>464.8739588111009</v>
       </c>
       <c r="O47" t="n">
         <v>908.0533939333675</v>
@@ -2782,10 +2782,10 @@
         <v>7575384.195705412</v>
       </c>
       <c r="E48" t="n">
-        <v>424762.4058704904</v>
+        <v>424746.4657863371</v>
       </c>
       <c r="F48" t="n">
-        <v>7575858.790563961</v>
+        <v>7575779.838732868</v>
       </c>
       <c r="G48" t="n">
         <v>4</v>
@@ -2805,13 +2805,13 @@
         <v>-108.3453925880603</v>
       </c>
       <c r="L48" t="n">
-        <v>600.7552031927044</v>
+        <v>584.8151190394419</v>
       </c>
       <c r="M48" t="n">
-        <v>474.5948585495353</v>
+        <v>395.6430274564773</v>
       </c>
       <c r="N48" t="n">
-        <v>765.6024385572193</v>
+        <v>706.0751579202057</v>
       </c>
       <c r="O48" t="n">
         <v>226.6139816280848</v>
@@ -2831,10 +2831,10 @@
         <v>7575384.195705412</v>
       </c>
       <c r="E49" t="n">
-        <v>424563.3138687902</v>
+        <v>424619.380369288</v>
       </c>
       <c r="F49" t="n">
-        <v>7576026.079521283</v>
+        <v>7575964.43181954</v>
       </c>
       <c r="G49" t="n">
         <v>6</v>
@@ -2854,13 +2854,13 @@
         <v>-292.6081759214091</v>
       </c>
       <c r="L49" t="n">
-        <v>401.6632014925708</v>
+        <v>457.7297019903199</v>
       </c>
       <c r="M49" t="n">
-        <v>641.8838158706203</v>
+        <v>580.2361141284928</v>
       </c>
       <c r="N49" t="n">
-        <v>757.1975703275136</v>
+        <v>739.0469729476472</v>
       </c>
       <c r="O49" t="n">
         <v>555.8419657876722</v>
@@ -2880,10 +2880,10 @@
         <v>7575384.195705412</v>
       </c>
       <c r="E50" t="n">
-        <v>424610.0137781315</v>
+        <v>424639.1742745493</v>
       </c>
       <c r="F50" t="n">
-        <v>7576057.92572657</v>
+        <v>7575985.26464321</v>
       </c>
       <c r="G50" t="n">
         <v>6</v>
@@ -2903,13 +2903,13 @@
         <v>-292.6081759214091</v>
       </c>
       <c r="L50" t="n">
-        <v>448.3631108338013</v>
+        <v>477.5236072516418</v>
       </c>
       <c r="M50" t="n">
-        <v>673.7300211582333</v>
+        <v>601.0689377980307</v>
       </c>
       <c r="N50" t="n">
-        <v>809.2846350737403</v>
+        <v>767.6670264302571</v>
       </c>
       <c r="O50" t="n">
         <v>555.8419657876722</v>
@@ -2929,10 +2929,10 @@
         <v>7575993.882316552</v>
       </c>
       <c r="E51" t="n">
-        <v>424393.2263774356</v>
+        <v>424434.1796352023</v>
       </c>
       <c r="F51" t="n">
-        <v>7575802.233050982</v>
+        <v>7575806.653087027</v>
       </c>
       <c r="G51" t="n">
         <v>2</v>
@@ -2952,13 +2952,13 @@
         <v>329.1051555522718</v>
       </c>
       <c r="L51" t="n">
-        <v>-112.864749402157</v>
+        <v>-71.91149163548835</v>
       </c>
       <c r="M51" t="n">
-        <v>-191.6492655705661</v>
+        <v>-187.2292295247316</v>
       </c>
       <c r="N51" t="n">
-        <v>222.4137870082452</v>
+        <v>200.5643213975645</v>
       </c>
       <c r="O51" t="n">
         <v>1188.730698850027</v>
@@ -2978,10 +2978,10 @@
         <v>7575993.882316552</v>
       </c>
       <c r="E52" t="n">
-        <v>424369.0392726831</v>
+        <v>424379.4785114503</v>
       </c>
       <c r="F52" t="n">
-        <v>7575865.269538762</v>
+        <v>7575842.690141892</v>
       </c>
       <c r="G52" t="n">
         <v>2</v>
@@ -3001,13 +3001,13 @@
         <v>329.1051555522718</v>
       </c>
       <c r="L52" t="n">
-        <v>-137.0518541546771</v>
+        <v>-126.6126153874793</v>
       </c>
       <c r="M52" t="n">
-        <v>-128.6127777900547</v>
+        <v>-151.1921746600419</v>
       </c>
       <c r="N52" t="n">
-        <v>187.9480176487873</v>
+        <v>197.2050406396611</v>
       </c>
       <c r="O52" t="n">
         <v>1188.730698850027</v>
@@ -3027,10 +3027,10 @@
         <v>7575993.882316552</v>
       </c>
       <c r="E53" t="n">
-        <v>424503.8355510362</v>
+        <v>424520.9980894923</v>
       </c>
       <c r="F53" t="n">
-        <v>7576240.404081668</v>
+        <v>7576201.789386407</v>
       </c>
       <c r="G53" t="n">
         <v>5</v>
@@ -3050,13 +3050,13 @@
         <v>-111.879338647984</v>
       </c>
       <c r="L53" t="n">
-        <v>-2.255575801536907</v>
+        <v>14.90696265455335</v>
       </c>
       <c r="M53" t="n">
-        <v>246.5217651156709</v>
+        <v>207.9070698544383</v>
       </c>
       <c r="N53" t="n">
-        <v>246.5320837090833</v>
+        <v>208.4408003032097</v>
       </c>
       <c r="O53" t="n">
         <v>822.2964947218435</v>
@@ -3076,10 +3076,10 @@
         <v>7575993.882316552</v>
       </c>
       <c r="E54" t="n">
-        <v>424650.903389445</v>
+        <v>424710.6040476147</v>
       </c>
       <c r="F54" t="n">
-        <v>7575963.378737204</v>
+        <v>7575910.870469114</v>
       </c>
       <c r="G54" t="n">
         <v>5</v>
@@ -3099,13 +3099,13 @@
         <v>216.2474101519212</v>
       </c>
       <c r="L54" t="n">
-        <v>144.8122626072727</v>
+        <v>204.5129207769642</v>
       </c>
       <c r="M54" t="n">
-        <v>-30.50357934832573</v>
+        <v>-83.01184743829072</v>
       </c>
       <c r="N54" t="n">
-        <v>147.9900664048007</v>
+        <v>220.7181496384991</v>
       </c>
       <c r="O54" t="n">
         <v>418.3284046355066</v>
@@ -3125,10 +3125,10 @@
         <v>7575993.882316552</v>
       </c>
       <c r="E55" t="n">
-        <v>424474.8325821806</v>
+        <v>424602.2109080974</v>
       </c>
       <c r="F55" t="n">
-        <v>7576050.878665596</v>
+        <v>7576024.786569115</v>
       </c>
       <c r="G55" t="n">
         <v>9</v>
@@ -3148,13 +3148,13 @@
         <v>153.3048991076648</v>
       </c>
       <c r="L55" t="n">
-        <v>-31.25854465714656</v>
+        <v>96.11978125962196</v>
       </c>
       <c r="M55" t="n">
-        <v>56.99634904414415</v>
+        <v>30.9042525626719</v>
       </c>
       <c r="N55" t="n">
-        <v>65.00523377732549</v>
+        <v>100.9657623942641</v>
       </c>
       <c r="O55" t="n">
         <v>809.4826938708336</v>
@@ -3174,10 +3174,10 @@
         <v>7576013.198939247</v>
       </c>
       <c r="E56" t="n">
-        <v>424800.5290112944</v>
+        <v>424839.6346383876</v>
       </c>
       <c r="F56" t="n">
-        <v>7576011.40572661</v>
+        <v>7575996.159408765</v>
       </c>
       <c r="G56" t="n">
         <v>4</v>
@@ -3197,13 +3197,13 @@
         <v>198.7108834970277</v>
       </c>
       <c r="L56" t="n">
-        <v>212.9322408118751</v>
+        <v>252.0378679051064</v>
       </c>
       <c r="M56" t="n">
-        <v>-1.79321263730526</v>
+        <v>-17.03953048214316</v>
       </c>
       <c r="N56" t="n">
-        <v>212.9397914639933</v>
+        <v>252.6132072105569</v>
       </c>
       <c r="O56" t="n">
         <v>392.7611216976345</v>
@@ -3223,10 +3223,10 @@
         <v>7576013.198939247</v>
       </c>
       <c r="E57" t="n">
-        <v>424659.6680925471</v>
+        <v>424684.3120355681</v>
       </c>
       <c r="F57" t="n">
-        <v>7575984.447379954</v>
+        <v>7575964.323742765</v>
       </c>
       <c r="G57" t="n">
         <v>5</v>
@@ -3246,13 +3246,13 @@
         <v>177.9110966470093</v>
       </c>
       <c r="L57" t="n">
-        <v>72.07132206461392</v>
+        <v>96.71526508557145</v>
       </c>
       <c r="M57" t="n">
-        <v>-28.75155929289758</v>
+        <v>-48.87519648205489</v>
       </c>
       <c r="N57" t="n">
-        <v>77.59463657956206</v>
+        <v>108.3634040242915</v>
       </c>
       <c r="O57" t="n">
         <v>550.3509526026252</v>
@@ -3272,10 +3272,10 @@
         <v>7576013.198939247</v>
       </c>
       <c r="E58" t="n">
-        <v>424758.6521826205</v>
+        <v>424785.5650529756</v>
       </c>
       <c r="F58" t="n">
-        <v>7575991.010388622</v>
+        <v>7575961.804778552</v>
       </c>
       <c r="G58" t="n">
         <v>4</v>
@@ -3295,13 +3295,13 @@
         <v>198.7108834970277</v>
       </c>
       <c r="L58" t="n">
-        <v>171.0554121379973</v>
+        <v>197.9682824931224</v>
       </c>
       <c r="M58" t="n">
-        <v>-22.18855062499642</v>
+        <v>-51.39416069537401</v>
       </c>
       <c r="N58" t="n">
-        <v>172.488509184056</v>
+        <v>204.5306838272894</v>
       </c>
       <c r="O58" t="n">
         <v>392.7611216976345</v>
@@ -3321,10 +3321,10 @@
         <v>7576013.198939247</v>
       </c>
       <c r="E59" t="n">
-        <v>424778.215355267</v>
+        <v>424786.8730319511</v>
       </c>
       <c r="F59" t="n">
-        <v>7576147.180710863</v>
+        <v>7576064.925548691</v>
       </c>
       <c r="G59" t="n">
         <v>4</v>
@@ -3344,13 +3344,13 @@
         <v>324.0541439969093</v>
       </c>
       <c r="L59" t="n">
-        <v>190.6185847845627</v>
+        <v>199.2762614686508</v>
       </c>
       <c r="M59" t="n">
-        <v>133.9817716162652</v>
+        <v>51.7266094442457</v>
       </c>
       <c r="N59" t="n">
-        <v>232.9947638697114</v>
+        <v>205.8802334113686</v>
       </c>
       <c r="O59" t="n">
         <v>476.5339934397911</v>
@@ -3370,10 +3370,10 @@
         <v>7576013.198939247</v>
       </c>
       <c r="E60" t="n">
-        <v>424810.0485730316</v>
+        <v>424822.7032737532</v>
       </c>
       <c r="F60" t="n">
-        <v>7575852.981893562</v>
+        <v>7575840.495065087</v>
       </c>
       <c r="G60" t="n">
         <v>4</v>
@@ -3393,13 +3393,13 @@
         <v>324.0541439969093</v>
       </c>
       <c r="L60" t="n">
-        <v>222.451802549127</v>
+        <v>235.1065032707411</v>
       </c>
       <c r="M60" t="n">
-        <v>-160.2170456852764</v>
+        <v>-172.7038741596043</v>
       </c>
       <c r="N60" t="n">
-        <v>274.1428572578059</v>
+        <v>291.7219498596762</v>
       </c>
       <c r="O60" t="n">
         <v>476.5339934397911</v>
@@ -3419,10 +3419,10 @@
         <v>7576013.198939247</v>
       </c>
       <c r="E61" t="n">
-        <v>424832.0695952298</v>
+        <v>424831.4930513385</v>
       </c>
       <c r="F61" t="n">
-        <v>7575891.009942477</v>
+        <v>7575849.34167101</v>
       </c>
       <c r="G61" t="n">
         <v>4</v>
@@ -3442,13 +3442,13 @@
         <v>324.0541439969093</v>
       </c>
       <c r="L61" t="n">
-        <v>244.4728247472667</v>
+        <v>243.8962808560464</v>
       </c>
       <c r="M61" t="n">
-        <v>-122.1889967704192</v>
+        <v>-163.8572682365775</v>
       </c>
       <c r="N61" t="n">
-        <v>273.3077257811591</v>
+        <v>293.8275007029893</v>
       </c>
       <c r="O61" t="n">
         <v>476.5339934397911</v>
@@ -3468,10 +3468,10 @@
         <v>7565382.436404901</v>
       </c>
       <c r="E62" t="n">
-        <v>427390.0229817328</v>
+        <v>427354.6483102133</v>
       </c>
       <c r="F62" t="n">
-        <v>7565867.800484858</v>
+        <v>7565782.278249867</v>
       </c>
       <c r="G62" t="n">
         <v>3</v>
@@ -3491,13 +3491,13 @@
         <v>-130.0167417659735</v>
       </c>
       <c r="L62" t="n">
-        <v>-128.3554577960167</v>
+        <v>-163.7301293155178</v>
       </c>
       <c r="M62" t="n">
-        <v>485.3640799568966</v>
+        <v>399.8418449666351</v>
       </c>
       <c r="N62" t="n">
-        <v>502.0492143788592</v>
+        <v>432.0660322589579</v>
       </c>
       <c r="O62" t="n">
         <v>193.1288251706171</v>
@@ -3517,10 +3517,10 @@
         <v>7565382.436404901</v>
       </c>
       <c r="E63" t="n">
-        <v>427909.0805500755</v>
+        <v>427951.5465757006</v>
       </c>
       <c r="F63" t="n">
-        <v>7565172.637361886</v>
+        <v>7565223.426973063</v>
       </c>
       <c r="G63" t="n">
         <v>2</v>
@@ -3540,13 +3540,13 @@
         <v>-62.16662909928709</v>
       </c>
       <c r="L63" t="n">
-        <v>390.7021105466411</v>
+        <v>433.168136171822</v>
       </c>
       <c r="M63" t="n">
-        <v>-209.7990430146456</v>
+        <v>-159.0094318371266</v>
       </c>
       <c r="N63" t="n">
-        <v>443.4678992164606</v>
+        <v>461.4310713505712</v>
       </c>
       <c r="O63" t="n">
         <v>99.24455936577476</v>
@@ -3566,10 +3566,10 @@
         <v>7565382.436404901</v>
       </c>
       <c r="E64" t="n">
-        <v>428097.9324165381</v>
+        <v>427986.9080665896</v>
       </c>
       <c r="F64" t="n">
-        <v>7565364.591305013</v>
+        <v>7565392.553344405</v>
       </c>
       <c r="G64" t="n">
         <v>1</v>
@@ -3589,13 +3589,13 @@
         <v>204.8038629004732</v>
       </c>
       <c r="L64" t="n">
-        <v>579.5539770093164</v>
+        <v>468.5296270607505</v>
       </c>
       <c r="M64" t="n">
-        <v>-17.84509988781065</v>
+        <v>10.11693950463086</v>
       </c>
       <c r="N64" t="n">
-        <v>579.8286469788477</v>
+        <v>468.6388416452763</v>
       </c>
       <c r="O64" t="n">
         <v>304.3215034464807</v>
@@ -3615,10 +3615,10 @@
         <v>7565382.436404901</v>
       </c>
       <c r="E65" t="n">
-        <v>427544.1959708077</v>
+        <v>427518.8240477472</v>
       </c>
       <c r="F65" t="n">
-        <v>7565624.819166383</v>
+        <v>7565555.900704715</v>
       </c>
       <c r="G65" t="n">
         <v>4</v>
@@ -3638,13 +3638,13 @@
         <v>-46.31159059936181</v>
       </c>
       <c r="L65" t="n">
-        <v>25.81753127888078</v>
+        <v>0.4456082183751278</v>
       </c>
       <c r="M65" t="n">
-        <v>242.3827614821494</v>
+        <v>173.4642998147756</v>
       </c>
       <c r="N65" t="n">
-        <v>243.7538676309537</v>
+        <v>173.4648721698853</v>
       </c>
       <c r="O65" t="n">
         <v>68.76625058727349</v>
@@ -3664,10 +3664,10 @@
         <v>7565382.436404901</v>
       </c>
       <c r="E66" t="n">
-        <v>427461.5463864276</v>
+        <v>427445.9719797305</v>
       </c>
       <c r="F66" t="n">
-        <v>7565241.026931744</v>
+        <v>7565242.85443916</v>
       </c>
       <c r="G66" t="n">
         <v>4</v>
@@ -3687,13 +3687,13 @@
         <v>-46.31159059936181</v>
       </c>
       <c r="L66" t="n">
-        <v>-56.83205310121411</v>
+        <v>-72.40645979827968</v>
       </c>
       <c r="M66" t="n">
-        <v>-141.4094731565565</v>
+        <v>-139.5819657407701</v>
       </c>
       <c r="N66" t="n">
-        <v>152.4024978736047</v>
+        <v>157.2444612079466</v>
       </c>
       <c r="O66" t="n">
         <v>68.76625058727349</v>
@@ -3713,10 +3713,10 @@
         <v>7565466.574663671</v>
       </c>
       <c r="E67" t="n">
-        <v>427211.7678847107</v>
+        <v>427208.4295813363</v>
       </c>
       <c r="F67" t="n">
-        <v>7565569.118929304</v>
+        <v>7565571.648715617</v>
       </c>
       <c r="G67" t="n">
         <v>2</v>
@@ -3736,13 +3736,13 @@
         <v>11.21015017060563</v>
       </c>
       <c r="L67" t="n">
-        <v>-92.35505949513754</v>
+        <v>-95.69336286949692</v>
       </c>
       <c r="M67" t="n">
-        <v>102.544265633449</v>
+        <v>105.0740519464016</v>
       </c>
       <c r="N67" t="n">
-        <v>138.0028384804231</v>
+        <v>142.118880131066</v>
       </c>
       <c r="O67" t="n">
         <v>73.38924382563867</v>
@@ -3762,10 +3762,10 @@
         <v>7565466.574663671</v>
       </c>
       <c r="E68" t="n">
-        <v>427231.1784311677</v>
+        <v>427225.5269610765</v>
       </c>
       <c r="F68" t="n">
-        <v>7565425.15072364</v>
+        <v>7565436.839515248</v>
       </c>
       <c r="G68" t="n">
         <v>2</v>
@@ -3785,13 +3785,13 @@
         <v>11.21015017060563</v>
       </c>
       <c r="L68" t="n">
-        <v>-72.94451303809183</v>
+        <v>-78.59598312928574</v>
       </c>
       <c r="M68" t="n">
-        <v>-41.42394003085792</v>
+        <v>-29.73514842242002</v>
       </c>
       <c r="N68" t="n">
-        <v>83.88590340482996</v>
+        <v>84.03277703231232</v>
       </c>
       <c r="O68" t="n">
         <v>73.38924382563867</v>
@@ -3811,10 +3811,10 @@
         <v>7565466.574663671</v>
       </c>
       <c r="E69" t="n">
-        <v>427366.2950027962</v>
+        <v>427383.5891619591</v>
       </c>
       <c r="F69" t="n">
-        <v>7565449.548790997</v>
+        <v>7565424.505507823</v>
       </c>
       <c r="G69" t="n">
         <v>4</v>
@@ -3834,13 +3834,13 @@
         <v>37.82666817074642</v>
       </c>
       <c r="L69" t="n">
-        <v>62.17205859039677</v>
+        <v>79.46621775330277</v>
       </c>
       <c r="M69" t="n">
-        <v>-17.02587267383933</v>
+        <v>-42.06915584765375</v>
       </c>
       <c r="N69" t="n">
-        <v>64.4611915005728</v>
+        <v>89.9149244438848</v>
       </c>
       <c r="O69" t="n">
         <v>167.7427807882272</v>
@@ -3860,10 +3860,10 @@
         <v>7565466.574663671</v>
       </c>
       <c r="E70" t="n">
-        <v>427393.566734751</v>
+        <v>427361.6941209359</v>
       </c>
       <c r="F70" t="n">
-        <v>7565479.625919478</v>
+        <v>7565453.526630875</v>
       </c>
       <c r="G70" t="n">
         <v>4</v>
@@ -3883,13 +3883,13 @@
         <v>37.82666817074642</v>
       </c>
       <c r="L70" t="n">
-        <v>89.44379054516321</v>
+        <v>57.57117673009634</v>
       </c>
       <c r="M70" t="n">
-        <v>13.05125580728054</v>
+        <v>-13.04803279601038</v>
       </c>
       <c r="N70" t="n">
-        <v>90.39096716616159</v>
+        <v>59.03127603172533</v>
       </c>
       <c r="O70" t="n">
         <v>167.7427807882272</v>
@@ -3909,10 +3909,10 @@
         <v>7565466.574663671</v>
       </c>
       <c r="E71" t="n">
-        <v>427324.958649238</v>
+        <v>427313.5316059348</v>
       </c>
       <c r="F71" t="n">
-        <v>7565688.361745239</v>
+        <v>7565667.243130754</v>
       </c>
       <c r="G71" t="n">
         <v>3</v>
@@ -3932,13 +3932,13 @@
         <v>-45.87848299586525</v>
       </c>
       <c r="L71" t="n">
-        <v>20.8357050322229</v>
+        <v>9.408661728957668</v>
       </c>
       <c r="M71" t="n">
-        <v>221.7870815685019</v>
+        <v>200.6684670830145</v>
       </c>
       <c r="N71" t="n">
-        <v>222.7636329270626</v>
+        <v>200.8889160630244</v>
       </c>
       <c r="O71" t="n">
         <v>84.9084633962147</v>
@@ -3958,10 +3958,10 @@
         <v>7565466.574663671</v>
       </c>
       <c r="E72" t="n">
-        <v>427207.0994686915</v>
+        <v>427182.8294680332</v>
       </c>
       <c r="F72" t="n">
-        <v>7565854.043407259</v>
+        <v>7565755.046555003</v>
       </c>
       <c r="G72" t="n">
         <v>2</v>
@@ -3981,13 +3981,13 @@
         <v>11.21015017060563</v>
       </c>
       <c r="L72" t="n">
-        <v>-97.0234755143174</v>
+        <v>-121.2934761726065</v>
       </c>
       <c r="M72" t="n">
-        <v>387.4687435878441</v>
+        <v>288.4718913324177</v>
       </c>
       <c r="N72" t="n">
-        <v>399.4315736874337</v>
+        <v>312.9347207500901</v>
       </c>
       <c r="O72" t="n">
         <v>73.38924382563867</v>
@@ -4007,10 +4007,10 @@
         <v>7565487.937967502</v>
       </c>
       <c r="E73" t="n">
-        <v>427182.8385379003</v>
+        <v>427169.4092528843</v>
       </c>
       <c r="F73" t="n">
-        <v>7565472.892932538</v>
+        <v>7565461.587461028</v>
       </c>
       <c r="G73" t="n">
         <v>2</v>
@@ -4030,13 +4030,13 @@
         <v>32.57345400145277</v>
       </c>
       <c r="L73" t="n">
-        <v>-169.1826838151319</v>
+        <v>-182.6119688311592</v>
       </c>
       <c r="M73" t="n">
-        <v>-15.04503496363759</v>
+        <v>-26.35050647333264</v>
       </c>
       <c r="N73" t="n">
-        <v>169.8503269939389</v>
+        <v>184.5033342565749</v>
       </c>
       <c r="O73" t="n">
         <v>124.7538495061759</v>
@@ -4056,10 +4056,10 @@
         <v>7565487.937967502</v>
       </c>
       <c r="E74" t="n">
-        <v>427180.3036864771</v>
+        <v>427177.328877483</v>
       </c>
       <c r="F74" t="n">
-        <v>7565151.858872378</v>
+        <v>7565129.269747524</v>
       </c>
       <c r="G74" t="n">
         <v>1</v>
@@ -4079,13 +4079,13 @@
         <v>-160.2154044983909</v>
       </c>
       <c r="L74" t="n">
-        <v>-171.7175352383638</v>
+        <v>-174.6923442324041</v>
       </c>
       <c r="M74" t="n">
-        <v>-336.0790951233357</v>
+        <v>-358.6682199779898</v>
       </c>
       <c r="N74" t="n">
-        <v>377.4070350261887</v>
+        <v>398.9490032016529</v>
       </c>
       <c r="O74" t="n">
         <v>192.8530163463931</v>
@@ -4105,10 +4105,10 @@
         <v>7565430.967301778</v>
       </c>
       <c r="E75" t="n">
-        <v>427154.0305137708</v>
+        <v>427154.8684748451</v>
       </c>
       <c r="F75" t="n">
-        <v>7566111.725683926</v>
+        <v>7566129.185191296</v>
       </c>
       <c r="G75" t="n">
         <v>1</v>
@@ -4128,13 +4128,13 @@
         <v>168.3916467772797</v>
       </c>
       <c r="L75" t="n">
-        <v>-133.9480053094449</v>
+        <v>-133.110044235189</v>
       </c>
       <c r="M75" t="n">
-        <v>680.7583821481094</v>
+        <v>698.217889518477</v>
       </c>
       <c r="N75" t="n">
-        <v>693.8112444975869</v>
+        <v>710.7928707576702</v>
       </c>
       <c r="O75" t="n">
         <v>182.1562084009817</v>
@@ -4154,10 +4154,10 @@
         <v>7565430.967301778</v>
       </c>
       <c r="E76" t="n">
-        <v>427236.0780201128</v>
+        <v>427225.6328395865</v>
       </c>
       <c r="F76" t="n">
-        <v>7566002.220801678</v>
+        <v>7565953.447719876</v>
       </c>
       <c r="G76" t="n">
         <v>1</v>
@@ -4177,13 +4177,13 @@
         <v>168.3916467772797</v>
       </c>
       <c r="L76" t="n">
-        <v>-51.90049896744313</v>
+        <v>-62.34567949379561</v>
       </c>
       <c r="M76" t="n">
-        <v>571.2534999009222</v>
+        <v>522.4804180981591</v>
       </c>
       <c r="N76" t="n">
-        <v>573.6063309815561</v>
+        <v>526.1870114774501</v>
       </c>
       <c r="O76" t="n">
         <v>182.1562084009817</v>
@@ -4203,10 +4203,10 @@
         <v>7565430.967301778</v>
       </c>
       <c r="E77" t="n">
-        <v>427161.1098658998</v>
+        <v>427129.6345009829</v>
       </c>
       <c r="F77" t="n">
-        <v>7565487.473277946</v>
+        <v>7565483.841381848</v>
       </c>
       <c r="G77" t="n">
         <v>2</v>
@@ -4226,13 +4226,13 @@
         <v>-24.39721172256395</v>
       </c>
       <c r="L77" t="n">
-        <v>-126.8686531804269</v>
+        <v>-158.3440180973266</v>
       </c>
       <c r="M77" t="n">
-        <v>56.50597616843879</v>
+        <v>52.87408007029444</v>
       </c>
       <c r="N77" t="n">
-        <v>138.8833341425947</v>
+        <v>166.9386007204038</v>
       </c>
       <c r="O77" t="n">
         <v>61.43560594337487</v>
@@ -4252,10 +4252,10 @@
         <v>7565430.967301778</v>
       </c>
       <c r="E78" t="n">
-        <v>427179.2282430299</v>
+        <v>427157.8492173334</v>
       </c>
       <c r="F78" t="n">
-        <v>7565377.670689526</v>
+        <v>7565348.023196734</v>
       </c>
       <c r="G78" t="n">
         <v>2</v>
@@ -4275,13 +4275,13 @@
         <v>-24.39721172256395</v>
       </c>
       <c r="L78" t="n">
-        <v>-108.7502760503558</v>
+        <v>-130.1293017468997</v>
       </c>
       <c r="M78" t="n">
-        <v>-53.29661225154996</v>
+        <v>-82.94410504307598</v>
       </c>
       <c r="N78" t="n">
-        <v>121.1080155007118</v>
+        <v>154.3157792791538</v>
       </c>
       <c r="O78" t="n">
         <v>61.43560594337487</v>
@@ -4301,10 +4301,10 @@
         <v>7565162.180096431</v>
       </c>
       <c r="E79" t="n">
-        <v>427342.2038551537</v>
+        <v>427307.0915785737</v>
       </c>
       <c r="F79" t="n">
-        <v>7565176.49972146</v>
+        <v>7565159.928558934</v>
       </c>
       <c r="G79" t="n">
         <v>4</v>
@@ -4324,13 +4324,13 @@
         <v>-266.5678990692832</v>
       </c>
       <c r="L79" t="n">
-        <v>202.6505440949113</v>
+        <v>167.5382675149594</v>
       </c>
       <c r="M79" t="n">
-        <v>14.31962502934039</v>
+        <v>-2.251537496224046</v>
       </c>
       <c r="N79" t="n">
-        <v>203.1558384170746</v>
+        <v>167.5533959757636</v>
       </c>
       <c r="O79" t="n">
         <v>422.6547333935085</v>
@@ -4350,10 +4350,10 @@
         <v>7565162.180096431</v>
       </c>
       <c r="E80" t="n">
-        <v>427374.5144292758</v>
+        <v>427340.5961421072</v>
       </c>
       <c r="F80" t="n">
-        <v>7565178.826741623</v>
+        <v>7565140.071623284</v>
       </c>
       <c r="G80" t="n">
         <v>4</v>
@@ -4373,13 +4373,13 @@
         <v>-266.5678990692832</v>
       </c>
       <c r="L80" t="n">
-        <v>234.9611182169756</v>
+        <v>201.0428310483694</v>
       </c>
       <c r="M80" t="n">
-        <v>16.64664519205689</v>
+        <v>-22.10847314633429</v>
       </c>
       <c r="N80" t="n">
-        <v>235.550075079423</v>
+        <v>202.2548009338849</v>
       </c>
       <c r="O80" t="n">
         <v>422.6547333935085</v>
@@ -4399,10 +4399,10 @@
         <v>7565162.180096431</v>
       </c>
       <c r="E81" t="n">
-        <v>427299.5441033824</v>
+        <v>427283.1907284205</v>
       </c>
       <c r="F81" t="n">
-        <v>7565141.113586465</v>
+        <v>7565147.433239017</v>
       </c>
       <c r="G81" t="n">
         <v>4</v>
@@ -4422,13 +4422,13 @@
         <v>-266.5678990692832</v>
       </c>
       <c r="L81" t="n">
-        <v>159.9907923236606</v>
+        <v>143.6374173617223</v>
       </c>
       <c r="M81" t="n">
-        <v>-21.0665099658072</v>
+        <v>-14.74685741402209</v>
       </c>
       <c r="N81" t="n">
-        <v>161.3717802792426</v>
+        <v>144.3924425651672</v>
       </c>
       <c r="O81" t="n">
         <v>422.6547333935085</v>
@@ -4448,10 +4448,10 @@
         <v>7565162.180096431</v>
       </c>
       <c r="E82" t="n">
-        <v>427361.2983981222</v>
+        <v>427327.4171928182</v>
       </c>
       <c r="F82" t="n">
-        <v>7565271.506289192</v>
+        <v>7565245.329172269</v>
       </c>
       <c r="G82" t="n">
         <v>4</v>
@@ -4471,13 +4471,13 @@
         <v>-266.5678990692832</v>
       </c>
       <c r="L82" t="n">
-        <v>221.7450870634639</v>
+        <v>187.8638817594037</v>
       </c>
       <c r="M82" t="n">
-        <v>109.3261927608401</v>
+        <v>83.14907583873719</v>
       </c>
       <c r="N82" t="n">
-        <v>247.2308638911484</v>
+        <v>205.4424661128933</v>
       </c>
       <c r="O82" t="n">
         <v>422.6547333935085</v>
@@ -4497,10 +4497,10 @@
         <v>7565162.180096431</v>
       </c>
       <c r="E83" t="n">
-        <v>427392.8454549137</v>
+        <v>427365.7747850681</v>
       </c>
       <c r="F83" t="n">
-        <v>7565087.842554807</v>
+        <v>7565090.576903207</v>
       </c>
       <c r="G83" t="n">
         <v>4</v>
@@ -4520,13 +4520,13 @@
         <v>-266.5678990692832</v>
       </c>
       <c r="L83" t="n">
-        <v>253.2921438548947</v>
+        <v>226.2214740093332</v>
       </c>
       <c r="M83" t="n">
-        <v>-74.33754162397236</v>
+        <v>-71.60319322347641</v>
       </c>
       <c r="N83" t="n">
-        <v>263.97534019924</v>
+        <v>237.2828956809865</v>
       </c>
       <c r="O83" t="n">
         <v>422.6547333935085</v>
@@ -4546,10 +4546,10 @@
         <v>7573978.230192993</v>
       </c>
       <c r="E84" t="n">
-        <v>421145.1065967717</v>
+        <v>421142.3881871947</v>
       </c>
       <c r="F84" t="n">
-        <v>7573968.010524836</v>
+        <v>7573982.011656093</v>
       </c>
       <c r="G84" t="n">
         <v>1</v>
@@ -4569,13 +4569,13 @@
         <v>-8.801192007027566</v>
       </c>
       <c r="L84" t="n">
-        <v>-194.5623606322333</v>
+        <v>-197.2807702092687</v>
       </c>
       <c r="M84" t="n">
-        <v>-10.21966815646738</v>
+        <v>3.781463100574911</v>
       </c>
       <c r="N84" t="n">
-        <v>194.8305771484947</v>
+        <v>197.3170082824673</v>
       </c>
       <c r="O84" t="n">
         <v>210.1155508096735</v>
@@ -4595,10 +4595,10 @@
         <v>7573978.230192993</v>
       </c>
       <c r="E85" t="n">
-        <v>421193.4287591539</v>
+        <v>421199.0343805545</v>
       </c>
       <c r="F85" t="n">
-        <v>7574100.446348331</v>
+        <v>7574071.768482069</v>
       </c>
       <c r="G85" t="n">
         <v>1</v>
@@ -4618,13 +4618,13 @@
         <v>-8.801192007027566</v>
       </c>
       <c r="L85" t="n">
-        <v>-146.2401982500451</v>
+        <v>-140.634576849523</v>
       </c>
       <c r="M85" t="n">
-        <v>122.2161553381011</v>
+        <v>93.53828907571733</v>
       </c>
       <c r="N85" t="n">
-        <v>190.5858971955673</v>
+        <v>168.9008458500337</v>
       </c>
       <c r="O85" t="n">
         <v>210.1155508096735</v>
@@ -4644,10 +4644,10 @@
         <v>7573978.230192993</v>
       </c>
       <c r="E86" t="n">
-        <v>421492.9388050921</v>
+        <v>421454.7848616478</v>
       </c>
       <c r="F86" t="n">
-        <v>7574247.13651713</v>
+        <v>7574193.637271867</v>
       </c>
       <c r="G86" t="n">
         <v>1</v>
@@ -4667,13 +4667,13 @@
         <v>-8.801192007027566</v>
       </c>
       <c r="L86" t="n">
-        <v>153.2698476881487</v>
+        <v>115.1159042437794</v>
       </c>
       <c r="M86" t="n">
-        <v>268.9063241370022</v>
+        <v>215.4070788742974</v>
       </c>
       <c r="N86" t="n">
-        <v>309.5193974070492</v>
+        <v>244.2373457090884</v>
       </c>
       <c r="O86" t="n">
         <v>210.1155508096735</v>
@@ -4693,10 +4693,10 @@
         <v>7573978.230192993</v>
       </c>
       <c r="E87" t="n">
-        <v>421337.5243536241</v>
+        <v>421270.3373709079</v>
       </c>
       <c r="F87" t="n">
-        <v>7574150.546791955</v>
+        <v>7574060.430272746</v>
       </c>
       <c r="G87" t="n">
         <v>1</v>
@@ -4716,13 +4716,13 @@
         <v>-8.801192007027566</v>
       </c>
       <c r="L87" t="n">
-        <v>-2.144603779830504</v>
+        <v>-69.33158649608959</v>
       </c>
       <c r="M87" t="n">
-        <v>172.3165989620611</v>
+        <v>82.20007975306362</v>
       </c>
       <c r="N87" t="n">
-        <v>172.3299440121312</v>
+        <v>107.5347478607486</v>
       </c>
       <c r="O87" t="n">
         <v>210.1155508096735</v>
@@ -4742,10 +4742,10 @@
         <v>7573978.230192993</v>
       </c>
       <c r="E88" t="n">
-        <v>421516.3326140627</v>
+        <v>421445.9972800108</v>
       </c>
       <c r="F88" t="n">
-        <v>7574269.62380719</v>
+        <v>7574187.818856932</v>
       </c>
       <c r="G88" t="n">
         <v>1</v>
@@ -4765,13 +4765,13 @@
         <v>-8.801192007027566</v>
       </c>
       <c r="L88" t="n">
-        <v>176.6636566587258</v>
+        <v>106.3283226068597</v>
       </c>
       <c r="M88" t="n">
-        <v>291.3936141971499</v>
+        <v>209.5886639393866</v>
       </c>
       <c r="N88" t="n">
-        <v>340.7642674619943</v>
+        <v>235.0172764719343</v>
       </c>
       <c r="O88" t="n">
         <v>210.1155508096735</v>
@@ -4791,10 +4791,10 @@
         <v>7573978.230192993</v>
       </c>
       <c r="E89" t="n">
-        <v>421130.5442501236</v>
+        <v>421157.0759743586</v>
       </c>
       <c r="F89" t="n">
-        <v>7574065.737027804</v>
+        <v>7574037.110175821</v>
       </c>
       <c r="G89" t="n">
         <v>1</v>
@@ -4814,13 +4814,13 @@
         <v>-8.801192007027566</v>
       </c>
       <c r="L89" t="n">
-        <v>-209.1247072803671</v>
+        <v>-182.5929830453824</v>
       </c>
       <c r="M89" t="n">
-        <v>87.50683481153101</v>
+        <v>58.87998282816261</v>
       </c>
       <c r="N89" t="n">
-        <v>226.6949256905231</v>
+        <v>191.8516349559108</v>
       </c>
       <c r="O89" t="n">
         <v>210.1155508096735</v>
@@ -4840,10 +4840,10 @@
         <v>7576871.896400417</v>
       </c>
       <c r="E90" t="n">
-        <v>424906.5168792861</v>
+        <v>424913.1954961335</v>
       </c>
       <c r="F90" t="n">
-        <v>7577055.745511481</v>
+        <v>7577247.367033179</v>
       </c>
       <c r="G90" t="n">
         <v>1</v>
@@ -4863,13 +4863,13 @@
         <v>461.3059184169397</v>
       </c>
       <c r="L90" t="n">
-        <v>-40.58924627181841</v>
+        <v>-33.91062942444114</v>
       </c>
       <c r="M90" t="n">
-        <v>183.8491110634059</v>
+        <v>375.4706327617168</v>
       </c>
       <c r="N90" t="n">
-        <v>188.2763462353115</v>
+        <v>376.9988419802451</v>
       </c>
       <c r="O90" t="n">
         <v>461.3656302132206</v>
@@ -4889,10 +4889,10 @@
         <v>7576871.896400417</v>
       </c>
       <c r="E91" t="n">
-        <v>424919.8722884907</v>
+        <v>424912.361017919</v>
       </c>
       <c r="F91" t="n">
-        <v>7577141.183391141</v>
+        <v>7577158.725934302</v>
       </c>
       <c r="G91" t="n">
         <v>1</v>
@@ -4912,13 +4912,13 @@
         <v>461.3059184169397</v>
       </c>
       <c r="L91" t="n">
-        <v>-27.23383706720779</v>
+        <v>-34.74510763888247</v>
       </c>
       <c r="M91" t="n">
-        <v>269.2869907235727</v>
+        <v>286.8295338852331</v>
       </c>
       <c r="N91" t="n">
-        <v>270.6606089817296</v>
+        <v>288.9262951232677</v>
       </c>
       <c r="O91" t="n">
         <v>461.3656302132206</v>
@@ -4938,10 +4938,10 @@
         <v>7576871.896400417</v>
       </c>
       <c r="E92" t="n">
-        <v>424653.1065573787</v>
+        <v>424675.8086079533</v>
       </c>
       <c r="F92" t="n">
-        <v>7576415.691277072</v>
+        <v>7576389.862219679</v>
       </c>
       <c r="G92" t="n">
         <v>5</v>
@@ -4961,13 +4961,13 @@
         <v>704.1788030171767</v>
       </c>
       <c r="L92" t="n">
-        <v>-293.9995681792498</v>
+        <v>-271.2975176046602</v>
       </c>
       <c r="M92" t="n">
-        <v>-456.2051233453676</v>
+        <v>-482.0341807380319</v>
       </c>
       <c r="N92" t="n">
-        <v>542.732770943627</v>
+        <v>553.1358734146942</v>
       </c>
       <c r="O92" t="n">
         <v>926.5222753325139</v>
@@ -4987,10 +4987,10 @@
         <v>7576871.896400417</v>
       </c>
       <c r="E93" t="n">
-        <v>425039.5912886268</v>
+        <v>425009.943464421</v>
       </c>
       <c r="F93" t="n">
-        <v>7576370.045651178</v>
+        <v>7576331.589485579</v>
       </c>
       <c r="G93" t="n">
         <v>3</v>
@@ -5010,13 +5010,13 @@
         <v>693.6228237506002</v>
       </c>
       <c r="L93" t="n">
-        <v>92.4851630689227</v>
+        <v>62.83733886305708</v>
       </c>
       <c r="M93" t="n">
-        <v>-501.8507492393255</v>
+        <v>-540.3069148380309</v>
       </c>
       <c r="N93" t="n">
-        <v>510.3015578067126</v>
+        <v>543.9486128093184</v>
       </c>
       <c r="O93" t="n">
         <v>695.4513517348389</v>
@@ -5036,10 +5036,10 @@
         <v>7564785.65884192</v>
       </c>
       <c r="E94" t="n">
-        <v>427398.445270934</v>
+        <v>427374.2164445633</v>
       </c>
       <c r="F94" t="n">
-        <v>7564949.570413033</v>
+        <v>7564968.240648584</v>
       </c>
       <c r="G94" t="n">
         <v>4</v>
@@ -5059,13 +5059,13 @@
         <v>-643.0891535799019</v>
       </c>
       <c r="L94" t="n">
-        <v>-42.6844971961109</v>
+        <v>-66.91332356684143</v>
       </c>
       <c r="M94" t="n">
-        <v>163.9115711133927</v>
+        <v>182.5818066643551</v>
       </c>
       <c r="N94" t="n">
-        <v>169.3781846807481</v>
+        <v>194.4569592366927</v>
       </c>
       <c r="O94" t="n">
         <v>643.6314367787569</v>
@@ -5085,10 +5085,10 @@
         <v>7564785.65884192</v>
       </c>
       <c r="E95" t="n">
-        <v>427525.6592328879</v>
+        <v>427517.1506022718</v>
       </c>
       <c r="F95" t="n">
-        <v>7564993.654719997</v>
+        <v>7565005.140600252</v>
       </c>
       <c r="G95" t="n">
         <v>4</v>
@@ -5108,13 +5108,13 @@
         <v>-643.0891535799019</v>
       </c>
       <c r="L95" t="n">
-        <v>84.52946475776844</v>
+        <v>76.02083414164372</v>
       </c>
       <c r="M95" t="n">
-        <v>207.9958780771121</v>
+        <v>219.48175833188</v>
       </c>
       <c r="N95" t="n">
-        <v>224.5161813974746</v>
+        <v>232.2744270556814</v>
       </c>
       <c r="O95" t="n">
         <v>643.6314367787569</v>
@@ -5134,10 +5134,10 @@
         <v>7564785.65884192</v>
       </c>
       <c r="E96" t="n">
-        <v>427509.6850852321</v>
+        <v>427497.9776882199</v>
       </c>
       <c r="F96" t="n">
-        <v>7564967.981009526</v>
+        <v>7564954.534970182</v>
       </c>
       <c r="G96" t="n">
         <v>4</v>
@@ -5157,13 +5157,13 @@
         <v>-643.0891535799019</v>
       </c>
       <c r="L96" t="n">
-        <v>68.55531710200012</v>
+        <v>56.84792008972727</v>
       </c>
       <c r="M96" t="n">
-        <v>182.322167606093</v>
+        <v>168.8761282619089</v>
       </c>
       <c r="N96" t="n">
-        <v>194.7850207370681</v>
+        <v>178.1876334521022</v>
       </c>
       <c r="O96" t="n">
         <v>643.6314367787569</v>
@@ -5183,10 +5183,10 @@
         <v>7564785.65884192</v>
       </c>
       <c r="E97" t="n">
-        <v>427484.8817522894</v>
+        <v>427446.6225438815</v>
       </c>
       <c r="F97" t="n">
-        <v>7565458.486385878</v>
+        <v>7565430.544169835</v>
       </c>
       <c r="G97" t="n">
         <v>4</v>
@@ -5206,13 +5206,13 @@
         <v>-643.0891535799019</v>
       </c>
       <c r="L97" t="n">
-        <v>43.75198415922932</v>
+        <v>5.49277575139422</v>
       </c>
       <c r="M97" t="n">
-        <v>672.8275439580902</v>
+        <v>644.8853279147297</v>
       </c>
       <c r="N97" t="n">
-        <v>674.2485743600392</v>
+        <v>644.9087197000391</v>
       </c>
       <c r="O97" t="n">
         <v>643.6314367787569</v>
@@ -5232,10 +5232,10 @@
         <v>7564785.65884192</v>
       </c>
       <c r="E98" t="n">
-        <v>427597.9475070398</v>
+        <v>427560.1253174571</v>
       </c>
       <c r="F98" t="n">
-        <v>7566078.342437278</v>
+        <v>7566096.045480594</v>
       </c>
       <c r="G98" t="n">
         <v>1</v>
@@ -5255,13 +5255,13 @@
         <v>-840.9715710794553</v>
       </c>
       <c r="L98" t="n">
-        <v>156.8177389096236</v>
+        <v>118.9955493269372</v>
       </c>
       <c r="M98" t="n">
-        <v>1292.683595357463</v>
+        <v>1310.386638673954</v>
       </c>
       <c r="N98" t="n">
-        <v>1302.160773845927</v>
+        <v>1315.778508554856</v>
       </c>
       <c r="O98" t="n">
         <v>869.8793098530427</v>
@@ -5281,10 +5281,10 @@
         <v>7564630.517179459</v>
       </c>
       <c r="E99" t="n">
-        <v>427642.7270780201</v>
+        <v>427617.2220245978</v>
       </c>
       <c r="F99" t="n">
-        <v>7564864.387086671</v>
+        <v>7564895.768624783</v>
       </c>
       <c r="G99" t="n">
         <v>2</v>
@@ -5304,13 +5304,13 @@
         <v>-771.6142980405129</v>
       </c>
       <c r="L99" t="n">
-        <v>262.3985426026629</v>
+        <v>236.8934891803656</v>
       </c>
       <c r="M99" t="n">
-        <v>233.8699072115123</v>
+        <v>265.2514453232288</v>
       </c>
       <c r="N99" t="n">
-        <v>351.4941374463064</v>
+        <v>355.6358452998092</v>
       </c>
       <c r="O99" t="n">
         <v>836.555615798977</v>
@@ -5330,10 +5330,10 @@
         <v>7564630.517179459</v>
       </c>
       <c r="E100" t="n">
-        <v>427416.7483662012</v>
+        <v>427392.3438670813</v>
       </c>
       <c r="F100" t="n">
-        <v>7564878.31563031</v>
+        <v>7564888.600301868</v>
       </c>
       <c r="G100" t="n">
         <v>4</v>
@@ -5353,13 +5353,13 @@
         <v>-798.2308160406537</v>
       </c>
       <c r="L100" t="n">
-        <v>36.41983078373596</v>
+        <v>12.01533166388981</v>
       </c>
       <c r="M100" t="n">
-        <v>247.7984508508816</v>
+        <v>258.0831224089488</v>
       </c>
       <c r="N100" t="n">
-        <v>250.4605284638934</v>
+        <v>258.3626642286879</v>
       </c>
       <c r="O100" t="n">
         <v>802.9814167025017</v>
@@ -5379,10 +5379,10 @@
         <v>7564630.517179459</v>
       </c>
       <c r="E101" t="n">
-        <v>427463.0936126868</v>
+        <v>427470.1781892222</v>
       </c>
       <c r="F101" t="n">
-        <v>7564939.392873983</v>
+        <v>7564946.874016576</v>
       </c>
       <c r="G101" t="n">
         <v>3</v>
@@ -5402,13 +5402,13 @@
         <v>-853.6215962072214</v>
       </c>
       <c r="L101" t="n">
-        <v>82.76507726934506</v>
+        <v>89.84965380479116</v>
       </c>
       <c r="M101" t="n">
-        <v>308.8756945235655</v>
+        <v>316.3568371161819</v>
       </c>
       <c r="N101" t="n">
-        <v>319.7721887263112</v>
+        <v>328.8686799909581</v>
       </c>
       <c r="O101" t="n">
         <v>870.4291269391435</v>
@@ -5428,10 +5428,10 @@
         <v>7564630.517179459</v>
       </c>
       <c r="E102" t="n">
-        <v>427398.1365249731</v>
+        <v>427387.0559976668</v>
       </c>
       <c r="F102" t="n">
-        <v>7564904.438014164</v>
+        <v>7564892.263772231</v>
       </c>
       <c r="G102" t="n">
         <v>2</v>
@@ -5451,13 +5451,13 @@
         <v>-782.3757775407284</v>
       </c>
       <c r="L102" t="n">
-        <v>17.80798955564387</v>
+        <v>6.727462249342352</v>
       </c>
       <c r="M102" t="n">
-        <v>273.9208347043023</v>
+        <v>261.7465927712619</v>
       </c>
       <c r="N102" t="n">
-        <v>274.4990859312934</v>
+        <v>261.8330337747343</v>
       </c>
       <c r="O102" t="n">
         <v>790.6008364352165</v>
@@ -5477,10 +5477,10 @@
         <v>7564630.517179459</v>
       </c>
       <c r="E103" t="n">
-        <v>427380.3078970955</v>
+        <v>427382.9617488487</v>
       </c>
       <c r="F103" t="n">
-        <v>7564892.345459371</v>
+        <v>7564884.150090802</v>
       </c>
       <c r="G103" t="n">
         <v>4</v>
@@ -5500,13 +5500,13 @@
         <v>-798.2308160406537</v>
       </c>
       <c r="L103" t="n">
-        <v>-0.02063832199200988</v>
+        <v>2.633213431283366</v>
       </c>
       <c r="M103" t="n">
-        <v>261.8282799115404</v>
+        <v>253.6329113431275</v>
       </c>
       <c r="N103" t="n">
-        <v>261.8282807249368</v>
+        <v>253.6465799678077</v>
       </c>
       <c r="O103" t="n">
         <v>802.9814167025017</v>
@@ -5526,10 +5526,10 @@
         <v>7564630.517179459</v>
       </c>
       <c r="E104" t="n">
-        <v>427315.5478541116</v>
+        <v>427302.3018551992</v>
       </c>
       <c r="F104" t="n">
-        <v>7564837.973868323</v>
+        <v>7564830.686115999</v>
       </c>
       <c r="G104" t="n">
         <v>3</v>
@@ -5549,13 +5549,13 @@
         <v>-732.2700102074692</v>
       </c>
       <c r="L104" t="n">
-        <v>-64.78068130585598</v>
+        <v>-78.02668021823047</v>
       </c>
       <c r="M104" t="n">
-        <v>207.4566888632253</v>
+        <v>200.1689365394413</v>
       </c>
       <c r="N104" t="n">
-        <v>217.3357182437897</v>
+        <v>214.8389303203888</v>
       </c>
       <c r="O104" t="n">
         <v>732.5971785410549</v>
@@ -5575,10 +5575,10 @@
         <v>7564630.517179459</v>
       </c>
       <c r="E105" t="n">
-        <v>427459.8555166921</v>
+        <v>427448.1382341578</v>
       </c>
       <c r="F105" t="n">
-        <v>7564717.824570038</v>
+        <v>7564710.559045061</v>
       </c>
       <c r="G105" t="n">
         <v>3</v>
@@ -5598,13 +5598,13 @@
         <v>-725.0956905406589</v>
       </c>
       <c r="L105" t="n">
-        <v>79.52698127465555</v>
+        <v>67.80969874031143</v>
       </c>
       <c r="M105" t="n">
-        <v>87.30739057902247</v>
+        <v>80.04186560120434</v>
       </c>
       <c r="N105" t="n">
-        <v>118.0979305507823</v>
+        <v>104.9040299138839</v>
       </c>
       <c r="O105" t="n">
         <v>742.8648385227489</v>
@@ -5624,10 +5624,10 @@
         <v>7564956.741413437</v>
       </c>
       <c r="E106" t="n">
-        <v>427426.6762783895</v>
+        <v>427431.891576778</v>
       </c>
       <c r="F106" t="n">
-        <v>7564992.306888332</v>
+        <v>7564987.299291668</v>
       </c>
       <c r="G106" t="n">
         <v>4</v>
@@ -5647,13 +5647,13 @@
         <v>-472.0065820631571</v>
       </c>
       <c r="L106" t="n">
-        <v>-123.6938506175647</v>
+        <v>-118.478552229004</v>
       </c>
       <c r="M106" t="n">
-        <v>35.56547489482909</v>
+        <v>30.55787823162973</v>
       </c>
       <c r="N106" t="n">
-        <v>128.7053677400253</v>
+        <v>122.3558386849599</v>
       </c>
       <c r="O106" t="n">
         <v>479.21832990863</v>
@@ -5673,10 +5673,10 @@
         <v>7564956.741413437</v>
       </c>
       <c r="E107" t="n">
-        <v>427498.5706317006</v>
+        <v>427503.3675898231</v>
       </c>
       <c r="F107" t="n">
-        <v>7565116.910282917</v>
+        <v>7565144.74408603</v>
       </c>
       <c r="G107" t="n">
         <v>3</v>
@@ -5696,13 +5696,13 @@
         <v>-527.3973622297248</v>
       </c>
       <c r="L107" t="n">
-        <v>-51.7994973064051</v>
+        <v>-47.00253918388626</v>
       </c>
       <c r="M107" t="n">
-        <v>160.1688694804907</v>
+        <v>188.0026725931093</v>
       </c>
       <c r="N107" t="n">
-        <v>168.3367300141438</v>
+        <v>193.789173051243</v>
       </c>
       <c r="O107" t="n">
         <v>527.3973946174215</v>
@@ -5722,10 +5722,10 @@
         <v>7576592.429458106</v>
       </c>
       <c r="E108" t="n">
-        <v>425184.4543658579</v>
+        <v>425194.402244082</v>
       </c>
       <c r="F108" t="n">
-        <v>7576793.919712109</v>
+        <v>7576814.194825709</v>
       </c>
       <c r="G108" t="n">
         <v>1</v>
@@ -5745,13 +5745,13 @@
         <v>-711.9979468937963</v>
       </c>
       <c r="L108" t="n">
-        <v>-239.2198904979741</v>
+        <v>-229.2720122738392</v>
       </c>
       <c r="M108" t="n">
-        <v>201.4902540026233</v>
+        <v>221.7653676029295</v>
       </c>
       <c r="N108" t="n">
-        <v>312.769049728237</v>
+        <v>318.9757575116923</v>
       </c>
       <c r="O108" t="n">
         <v>737.6384903303916</v>
@@ -5771,10 +5771,10 @@
         <v>7576592.429458106</v>
       </c>
       <c r="E109" t="n">
-        <v>425174.4253912454</v>
+        <v>425143.395778259</v>
       </c>
       <c r="F109" t="n">
-        <v>7576696.727547943</v>
+        <v>7576727.171164654</v>
       </c>
       <c r="G109" t="n">
         <v>1</v>
@@ -5794,13 +5794,13 @@
         <v>-711.9979468937963</v>
       </c>
       <c r="L109" t="n">
-        <v>-249.2488651104504</v>
+        <v>-280.2784780968213</v>
       </c>
       <c r="M109" t="n">
-        <v>104.2980898367241</v>
+        <v>134.7417065482587</v>
       </c>
       <c r="N109" t="n">
-        <v>270.1908368217488</v>
+        <v>310.9844895936249</v>
       </c>
       <c r="O109" t="n">
         <v>737.6384903303916</v>
@@ -5820,10 +5820,10 @@
         <v>7576592.429458106</v>
       </c>
       <c r="E110" t="n">
-        <v>425122.7146415815</v>
+        <v>425118.6116116477</v>
       </c>
       <c r="F110" t="n">
-        <v>7576713.193327679</v>
+        <v>7576714.802173206</v>
       </c>
       <c r="G110" t="n">
         <v>1</v>
@@ -5843,13 +5843,13 @@
         <v>-711.9979468937963</v>
       </c>
       <c r="L110" t="n">
-        <v>-300.9596147743869</v>
+        <v>-305.0626447081449</v>
       </c>
       <c r="M110" t="n">
-        <v>120.7638695733622</v>
+        <v>122.3727150997147</v>
       </c>
       <c r="N110" t="n">
-        <v>324.2847543741139</v>
+        <v>328.6917987982113</v>
       </c>
       <c r="O110" t="n">
         <v>737.6384903303916</v>
@@ -5869,10 +5869,10 @@
         <v>7576592.429458106</v>
       </c>
       <c r="E111" t="n">
-        <v>425100.7405441771</v>
+        <v>425104.4397757453</v>
       </c>
       <c r="F111" t="n">
-        <v>7576779.273096177</v>
+        <v>7576780.829062651</v>
       </c>
       <c r="G111" t="n">
         <v>1</v>
@@ -5892,13 +5892,13 @@
         <v>-711.9979468937963</v>
       </c>
       <c r="L111" t="n">
-        <v>-322.933712178783</v>
+        <v>-319.2344806105248</v>
       </c>
       <c r="M111" t="n">
-        <v>186.843638070859</v>
+        <v>188.3996045449749</v>
       </c>
       <c r="N111" t="n">
-        <v>373.0907765532716</v>
+        <v>370.6818913885252</v>
       </c>
       <c r="O111" t="n">
         <v>737.6384903303916</v>
@@ -5918,10 +5918,10 @@
         <v>7577108.920317246</v>
       </c>
       <c r="E112" t="n">
-        <v>424379.202230776</v>
+        <v>424373.1443803486</v>
       </c>
       <c r="F112" t="n">
-        <v>7576416.837264625</v>
+        <v>7576357.581441621</v>
       </c>
       <c r="G112" t="n">
         <v>5</v>
@@ -5941,13 +5941,13 @@
         <v>1144.402715245634</v>
       </c>
       <c r="L112" t="n">
-        <v>-433.7379370394628</v>
+        <v>-439.7957874669228</v>
       </c>
       <c r="M112" t="n">
-        <v>-692.0830526202917</v>
+        <v>-751.3388756243512</v>
       </c>
       <c r="N112" t="n">
-        <v>816.7665209541038</v>
+        <v>870.5920058776757</v>
       </c>
       <c r="O112" t="n">
         <v>1382.186005655246</v>
@@ -5967,10 +5967,10 @@
         <v>7577108.920317246</v>
       </c>
       <c r="E113" t="n">
-        <v>424319.3726358418</v>
+        <v>424438.7537916988</v>
       </c>
       <c r="F113" t="n">
-        <v>7576526.754917589</v>
+        <v>7576500.728529221</v>
       </c>
       <c r="G113" t="n">
         <v>6</v>
@@ -5990,13 +5990,13 @@
         <v>1068.512310245695</v>
       </c>
       <c r="L113" t="n">
-        <v>-493.5675319737056</v>
+        <v>-374.1863761167042</v>
       </c>
       <c r="M113" t="n">
-        <v>-582.1653996566311</v>
+        <v>-608.191788024269</v>
       </c>
       <c r="N113" t="n">
-        <v>763.2335561123999</v>
+        <v>714.0817145757964</v>
       </c>
       <c r="O113" t="n">
         <v>1387.13526772572</v>
@@ -6016,10 +6016,10 @@
         <v>7577108.920317246</v>
       </c>
       <c r="E114" t="n">
-        <v>424358.5962604092</v>
+        <v>424369.1991625016</v>
       </c>
       <c r="F114" t="n">
-        <v>7576612.171961645</v>
+        <v>7576587.987869102</v>
       </c>
       <c r="G114" t="n">
         <v>5</v>
@@ -6039,13 +6039,13 @@
         <v>824.3912774456664</v>
       </c>
       <c r="L114" t="n">
-        <v>-454.3439074062626</v>
+        <v>-443.741005313932</v>
       </c>
       <c r="M114" t="n">
-        <v>-496.7483556009829</v>
+        <v>-520.9324481440708</v>
       </c>
       <c r="N114" t="n">
-        <v>673.1918857127372</v>
+        <v>684.3074567227761</v>
       </c>
       <c r="O114" t="n">
         <v>1345.41517708645</v>
@@ -6065,10 +6065,10 @@
         <v>7577108.920317246</v>
       </c>
       <c r="E115" t="n">
-        <v>424392.6848081394</v>
+        <v>424455.2865708208</v>
       </c>
       <c r="F115" t="n">
-        <v>7576372.72406029</v>
+        <v>7576340.954886558</v>
       </c>
       <c r="G115" t="n">
         <v>7</v>
@@ -6088,13 +6088,13 @@
         <v>1158.41812096004</v>
       </c>
       <c r="L115" t="n">
-        <v>-420.2553596760845</v>
+        <v>-357.6535969946417</v>
       </c>
       <c r="M115" t="n">
-        <v>-736.1962569551542</v>
+        <v>-767.965430688113</v>
       </c>
       <c r="N115" t="n">
-        <v>847.7024808806771</v>
+        <v>847.1640916464675</v>
       </c>
       <c r="O115" t="n">
         <v>1505.535551042128</v>
@@ -6114,10 +6114,10 @@
         <v>7576405.5815273</v>
       </c>
       <c r="E116" t="n">
-        <v>424117.5785729807</v>
+        <v>424143.7520535121</v>
       </c>
       <c r="F116" t="n">
-        <v>7576200.500003765</v>
+        <v>7576161.782786468</v>
       </c>
       <c r="G116" t="n">
         <v>1</v>
@@ -6137,13 +6137,13 @@
         <v>273.9861762998626</v>
       </c>
       <c r="L116" t="n">
-        <v>-348.0245466398192</v>
+        <v>-321.8510661083274</v>
       </c>
       <c r="M116" t="n">
-        <v>-205.0815235348418</v>
+        <v>-243.7987408321351</v>
       </c>
       <c r="N116" t="n">
-        <v>403.9548444556935</v>
+        <v>403.7647022541736</v>
       </c>
       <c r="O116" t="n">
         <v>731.7073717843109</v>
@@ -6163,10 +6163,10 @@
         <v>7576405.5815273</v>
       </c>
       <c r="E117" t="n">
-        <v>424396.4702736226</v>
+        <v>424455.8976263126</v>
       </c>
       <c r="F117" t="n">
-        <v>7576479.59566743</v>
+        <v>7576428.072251729</v>
       </c>
       <c r="G117" t="n">
         <v>8</v>
@@ -6186,13 +6186,13 @@
         <v>432.4426866752328</v>
       </c>
       <c r="L117" t="n">
-        <v>-69.13284599786857</v>
+        <v>-9.705493307905272</v>
       </c>
       <c r="M117" t="n">
-        <v>74.01414013002068</v>
+        <v>22.49072442855686</v>
       </c>
       <c r="N117" t="n">
-        <v>101.2790369965638</v>
+        <v>24.49549521179513</v>
       </c>
       <c r="O117" t="n">
         <v>757.8046054740696</v>
@@ -6212,10 +6212,10 @@
         <v>7576405.5815273</v>
       </c>
       <c r="E118" t="n">
-        <v>424221.0064755927</v>
+        <v>424267.8603577423</v>
       </c>
       <c r="F118" t="n">
-        <v>7576279.22841813</v>
+        <v>7576230.327353325</v>
       </c>
       <c r="G118" t="n">
         <v>6</v>
@@ -6235,13 +6235,13 @@
         <v>462.1014478001744</v>
       </c>
       <c r="L118" t="n">
-        <v>-244.5966440277989</v>
+        <v>-197.7427618781803</v>
       </c>
       <c r="M118" t="n">
-        <v>-126.3531091697514</v>
+        <v>-175.2541739754379</v>
       </c>
       <c r="N118" t="n">
-        <v>275.3046066932496</v>
+        <v>264.227601455684</v>
       </c>
       <c r="O118" t="n">
         <v>1116.76538578052</v>
@@ -6261,10 +6261,10 @@
         <v>7574201.159492696</v>
       </c>
       <c r="E119" t="n">
-        <v>422453.6999157822</v>
+        <v>422436.2290640073</v>
       </c>
       <c r="F119" t="n">
-        <v>7574468.554802332</v>
+        <v>7574460.192364435</v>
       </c>
       <c r="G119" t="n">
         <v>2</v>
@@ -6284,13 +6284,13 @@
         <v>-629.3176773041487</v>
       </c>
       <c r="L119" t="n">
-        <v>287.0626254237723</v>
+        <v>269.5917736488627</v>
       </c>
       <c r="M119" t="n">
-        <v>267.3953096363693</v>
+        <v>259.0328717390075</v>
       </c>
       <c r="N119" t="n">
-        <v>392.3075356537506</v>
+        <v>373.8686307521624</v>
       </c>
       <c r="O119" t="n">
         <v>642.3448153729219</v>
@@ -6310,10 +6310,10 @@
         <v>7574201.159492696</v>
       </c>
       <c r="E120" t="n">
-        <v>422475.9214353136</v>
+        <v>422489.1651101661</v>
       </c>
       <c r="F120" t="n">
-        <v>7574582.75437213</v>
+        <v>7574541.494134542</v>
       </c>
       <c r="G120" t="n">
         <v>2</v>
@@ -6333,13 +6333,13 @@
         <v>-629.3176773041487</v>
       </c>
       <c r="L120" t="n">
-        <v>309.2841449552216</v>
+        <v>322.5278198076412</v>
       </c>
       <c r="M120" t="n">
-        <v>381.594879434444</v>
+        <v>340.3346418458968</v>
       </c>
       <c r="N120" t="n">
-        <v>491.1937849070063</v>
+        <v>468.883634807449</v>
       </c>
       <c r="O120" t="n">
         <v>642.3448153729219</v>
@@ -6359,10 +6359,10 @@
         <v>7574201.159492696</v>
       </c>
       <c r="E121" t="n">
-        <v>422071.1007884667</v>
+        <v>422125.6915179738</v>
       </c>
       <c r="F121" t="n">
-        <v>7574130.692248087</v>
+        <v>7573995.036181989</v>
       </c>
       <c r="G121" t="n">
         <v>1</v>
@@ -6382,13 +6382,13 @@
         <v>214.1281076958403</v>
       </c>
       <c r="L121" t="n">
-        <v>-95.5365018916782</v>
+        <v>-40.94577238464262</v>
       </c>
       <c r="M121" t="n">
-        <v>-70.46724460832775</v>
+        <v>-206.1233107065782</v>
       </c>
       <c r="N121" t="n">
-        <v>118.7133343663993</v>
+        <v>210.150839857507</v>
       </c>
       <c r="O121" t="n">
         <v>1058.778241350072</v>
@@ -6408,10 +6408,10 @@
         <v>7574201.159492696</v>
       </c>
       <c r="E122" t="n">
-        <v>421965.8977209592</v>
+        <v>422022.4834542979</v>
       </c>
       <c r="F122" t="n">
-        <v>7574101.496983636</v>
+        <v>7574042.203107438</v>
       </c>
       <c r="G122" t="n">
         <v>1</v>
@@ -6431,13 +6431,13 @@
         <v>214.1281076958403</v>
       </c>
       <c r="L122" t="n">
-        <v>-200.7395693992148</v>
+        <v>-144.15383606049</v>
       </c>
       <c r="M122" t="n">
-        <v>-99.66250905953348</v>
+        <v>-158.9563852576539</v>
       </c>
       <c r="N122" t="n">
-        <v>224.1182510074175</v>
+        <v>214.5867210829559</v>
       </c>
       <c r="O122" t="n">
         <v>1058.778241350072</v>
@@ -6457,10 +6457,10 @@
         <v>7574350.91491873</v>
       </c>
       <c r="E123" t="n">
-        <v>421919.774773679</v>
+        <v>421967.6328305086</v>
       </c>
       <c r="F123" t="n">
-        <v>7574162.829063684</v>
+        <v>7574044.724372589</v>
       </c>
       <c r="G123" t="n">
         <v>1</v>
@@ -6480,13 +6480,13 @@
         <v>363.8835337301716</v>
       </c>
       <c r="L123" t="n">
-        <v>-41.42970502929529</v>
+        <v>6.428351800248493</v>
       </c>
       <c r="M123" t="n">
-        <v>-188.0858550462872</v>
+        <v>-306.1905461410061</v>
       </c>
       <c r="N123" t="n">
-        <v>192.5946762693802</v>
+        <v>306.2580190835749</v>
       </c>
       <c r="O123" t="n">
         <v>907.6056608749877</v>
@@ -6506,10 +6506,10 @@
         <v>7574350.91491873</v>
       </c>
       <c r="E124" t="n">
-        <v>421919.5468421632</v>
+        <v>421938.5909169601</v>
       </c>
       <c r="F124" t="n">
-        <v>7574105.573876909</v>
+        <v>7574018.500933209</v>
       </c>
       <c r="G124" t="n">
         <v>1</v>
@@ -6529,13 +6529,13 @@
         <v>363.8835337301716</v>
       </c>
       <c r="L124" t="n">
-        <v>-41.65763654513285</v>
+        <v>-22.61356174823595</v>
       </c>
       <c r="M124" t="n">
-        <v>-245.3410418210551</v>
+        <v>-332.4139855215326</v>
       </c>
       <c r="N124" t="n">
-        <v>248.8525376289482</v>
+        <v>333.1822788583615</v>
       </c>
       <c r="O124" t="n">
         <v>907.6056608749877</v>
@@ -6555,10 +6555,10 @@
         <v>7574350.91491873</v>
       </c>
       <c r="E125" t="n">
-        <v>421918.3686669503</v>
+        <v>421963.6066836459</v>
       </c>
       <c r="F125" t="n">
-        <v>7574111.315238291</v>
+        <v>7574027.085916293</v>
       </c>
       <c r="G125" t="n">
         <v>1</v>
@@ -6578,13 +6578,13 @@
         <v>363.8835337301716</v>
       </c>
       <c r="L125" t="n">
-        <v>-42.83581175800646</v>
+        <v>2.402204937534407</v>
       </c>
       <c r="M125" t="n">
-        <v>-239.5996804386377</v>
+        <v>-323.8290024371818</v>
       </c>
       <c r="N125" t="n">
-        <v>243.3986722134381</v>
+        <v>323.837912246269</v>
       </c>
       <c r="O125" t="n">
         <v>907.6056608749877</v>
@@ -6604,10 +6604,10 @@
         <v>7574350.91491873</v>
       </c>
       <c r="E126" t="n">
-        <v>421915.2509063208</v>
+        <v>421977.9161123342</v>
       </c>
       <c r="F126" t="n">
-        <v>7574089.036672123</v>
+        <v>7573997.521501756</v>
       </c>
       <c r="G126" t="n">
         <v>1</v>
@@ -6627,13 +6627,13 @@
         <v>363.8835337301716</v>
       </c>
       <c r="L126" t="n">
-        <v>-45.95357238751603</v>
+        <v>16.71163362590596</v>
       </c>
       <c r="M126" t="n">
-        <v>-261.8782466072589</v>
+        <v>-353.3934169737622</v>
       </c>
       <c r="N126" t="n">
-        <v>265.8795721022339</v>
+        <v>353.788334825836</v>
       </c>
       <c r="O126" t="n">
         <v>907.6056608749877</v>
@@ -6653,10 +6653,10 @@
         <v>7574350.91491873</v>
       </c>
       <c r="E127" t="n">
-        <v>421971.9158909066</v>
+        <v>422044.6481743262</v>
       </c>
       <c r="F127" t="n">
-        <v>7574128.776063582</v>
+        <v>7574018.240463195</v>
       </c>
       <c r="G127" t="n">
         <v>1</v>
@@ -6676,13 +6676,13 @@
         <v>363.8835337301716</v>
       </c>
       <c r="L127" t="n">
-        <v>10.7114121982595</v>
+        <v>83.44369561783969</v>
       </c>
       <c r="M127" t="n">
-        <v>-222.1388551481068</v>
+        <v>-332.6744555346668</v>
       </c>
       <c r="N127" t="n">
-        <v>222.3969543806583</v>
+        <v>342.9798007225056</v>
       </c>
       <c r="O127" t="n">
         <v>907.6056608749877</v>
@@ -6702,10 +6702,10 @@
         <v>7573873.936439337</v>
       </c>
       <c r="E128" t="n">
-        <v>422229.4759022</v>
+        <v>422320.5404533044</v>
       </c>
       <c r="F128" t="n">
-        <v>7574315.903872856</v>
+        <v>7574263.520878017</v>
       </c>
       <c r="G128" t="n">
         <v>1</v>
@@ -6725,13 +6725,13 @@
         <v>-113.0949456626549</v>
       </c>
       <c r="L128" t="n">
-        <v>379.420368996216</v>
+        <v>470.4849201006</v>
       </c>
       <c r="M128" t="n">
-        <v>441.9674335187301</v>
+        <v>389.5844386797398</v>
       </c>
       <c r="N128" t="n">
-        <v>582.4903679035026</v>
+        <v>610.8453936173015</v>
       </c>
       <c r="O128" t="n">
         <v>729.1420156673895</v>
@@ -6751,10 +6751,10 @@
         <v>7573873.936439337</v>
       </c>
       <c r="E129" t="n">
-        <v>422185.6087161998</v>
+        <v>422254.8120542589</v>
       </c>
       <c r="F129" t="n">
-        <v>7574214.895389436</v>
+        <v>7574157.73257295</v>
       </c>
       <c r="G129" t="n">
         <v>1</v>
@@ -6774,13 +6774,13 @@
         <v>-113.0949456626549</v>
       </c>
       <c r="L129" t="n">
-        <v>335.5531829959364</v>
+        <v>404.7565210551256</v>
       </c>
       <c r="M129" t="n">
-        <v>340.958950098604</v>
+        <v>283.7961336132139</v>
       </c>
       <c r="N129" t="n">
-        <v>478.3815885577607</v>
+        <v>494.3360059619949</v>
       </c>
       <c r="O129" t="n">
         <v>729.1420156673895</v>
@@ -6800,10 +6800,10 @@
         <v>7573873.936439337</v>
       </c>
       <c r="E130" t="n">
-        <v>422154.3334368716</v>
+        <v>422130.9092493854</v>
       </c>
       <c r="F130" t="n">
-        <v>7574169.676537647</v>
+        <v>7574156.215953625</v>
       </c>
       <c r="G130" t="n">
         <v>1</v>
@@ -6823,13 +6823,13 @@
         <v>-113.0949456626549</v>
       </c>
       <c r="L130" t="n">
-        <v>304.2779036678257</v>
+        <v>280.8537161815329</v>
       </c>
       <c r="M130" t="n">
-        <v>295.7400983097032</v>
+        <v>282.2795142875984</v>
       </c>
       <c r="N130" t="n">
-        <v>424.3197478420249</v>
+        <v>398.1966022951722</v>
       </c>
       <c r="O130" t="n">
         <v>729.1420156673895</v>
@@ -6849,10 +6849,10 @@
         <v>7573873.936439337</v>
       </c>
       <c r="E131" t="n">
-        <v>422215.6231971405</v>
+        <v>422287.8256297945</v>
       </c>
       <c r="F131" t="n">
-        <v>7574230.939311291</v>
+        <v>7574144.435237488</v>
       </c>
       <c r="G131" t="n">
         <v>1</v>
@@ -6872,13 +6872,13 @@
         <v>-113.0949456626549</v>
       </c>
       <c r="L131" t="n">
-        <v>365.5676639367011</v>
+        <v>437.7700965906843</v>
       </c>
       <c r="M131" t="n">
-        <v>357.0028719538823</v>
+        <v>270.4987981505692</v>
       </c>
       <c r="N131" t="n">
-        <v>510.9704174406351</v>
+        <v>514.5991228810242</v>
       </c>
       <c r="O131" t="n">
         <v>729.1420156673895</v>
@@ -6898,10 +6898,10 @@
         <v>7573873.936439337</v>
       </c>
       <c r="E132" t="n">
-        <v>422179.1499881332</v>
+        <v>422254.4175424632</v>
       </c>
       <c r="F132" t="n">
-        <v>7574309.284352811</v>
+        <v>7574288.099806636</v>
       </c>
       <c r="G132" t="n">
         <v>1</v>
@@ -6921,13 +6921,13 @@
         <v>-113.0949456626549</v>
       </c>
       <c r="L132" t="n">
-        <v>329.0944549294072</v>
+        <v>404.3620092593483</v>
       </c>
       <c r="M132" t="n">
-        <v>435.3479134738445</v>
+        <v>414.1633672984317</v>
       </c>
       <c r="N132" t="n">
-        <v>545.7389174608254</v>
+        <v>578.8263378114656</v>
       </c>
       <c r="O132" t="n">
         <v>729.1420156673895</v>
@@ -6947,10 +6947,10 @@
         <v>7573873.936439337</v>
       </c>
       <c r="E133" t="n">
-        <v>422191.7076625188</v>
+        <v>422247.1802652123</v>
       </c>
       <c r="F133" t="n">
-        <v>7574217.812467583</v>
+        <v>7574123.130668351</v>
       </c>
       <c r="G133" t="n">
         <v>1</v>
@@ -6970,13 +6970,13 @@
         <v>-113.0949456626549</v>
       </c>
       <c r="L133" t="n">
-        <v>341.6521293150145</v>
+        <v>397.1247320084367</v>
       </c>
       <c r="M133" t="n">
-        <v>343.876028245315</v>
+        <v>249.1942290142179</v>
       </c>
       <c r="N133" t="n">
-        <v>484.7441596009755</v>
+        <v>468.8345300281999</v>
       </c>
       <c r="O133" t="n">
         <v>729.1420156673895</v>
@@ -6996,10 +6996,10 @@
         <v>7565154.566545373</v>
       </c>
       <c r="E134" t="n">
-        <v>427355.8759492447</v>
+        <v>427358.4853091222</v>
       </c>
       <c r="F134" t="n">
-        <v>7565162.38071476</v>
+        <v>7565149.585211033</v>
       </c>
       <c r="G134" t="n">
         <v>4</v>
@@ -7019,13 +7019,13 @@
         <v>-274.1814501271583</v>
       </c>
       <c r="L134" t="n">
-        <v>354.7009764248505</v>
+        <v>357.310336302442</v>
       </c>
       <c r="M134" t="n">
-        <v>7.814169387333095</v>
+        <v>-4.981334339827299</v>
       </c>
       <c r="N134" t="n">
-        <v>354.7870402367543</v>
+        <v>357.3450575009669</v>
       </c>
       <c r="O134" t="n">
         <v>540.9958536667958</v>
@@ -7045,10 +7045,10 @@
         <v>7565154.566545373</v>
       </c>
       <c r="E135" t="n">
-        <v>427387.8452061689</v>
+        <v>427370.4027807432</v>
       </c>
       <c r="F135" t="n">
-        <v>7565159.54585205</v>
+        <v>7565152.146679715</v>
       </c>
       <c r="G135" t="n">
         <v>4</v>
@@ -7068,13 +7068,13 @@
         <v>-274.1814501271583</v>
       </c>
       <c r="L135" t="n">
-        <v>386.670233349083</v>
+        <v>369.2278079233947</v>
       </c>
       <c r="M135" t="n">
-        <v>4.979306677356362</v>
+        <v>-2.419865657575428</v>
       </c>
       <c r="N135" t="n">
-        <v>386.7022922782091</v>
+        <v>369.2357375630316</v>
       </c>
       <c r="O135" t="n">
         <v>540.9958536667958</v>
@@ -7094,10 +7094,10 @@
         <v>7573900.200234684</v>
       </c>
       <c r="E136" t="n">
-        <v>421269.5900457043</v>
+        <v>421288.8159180223</v>
       </c>
       <c r="F136" t="n">
-        <v>7573836.500636882</v>
+        <v>7573812.107261145</v>
       </c>
       <c r="G136" t="n">
         <v>1</v>
@@ -7117,13 +7117,13 @@
         <v>-86.83115031570196</v>
       </c>
       <c r="L136" t="n">
-        <v>128.235087686684</v>
+        <v>147.4609600046533</v>
       </c>
       <c r="M136" t="n">
-        <v>-63.69959780201316</v>
+        <v>-88.09297353960574</v>
       </c>
       <c r="N136" t="n">
-        <v>143.1847634147913</v>
+        <v>171.7705059448322</v>
       </c>
       <c r="O136" t="n">
         <v>87.60483223299717</v>
@@ -7143,10 +7143,10 @@
         <v>7573900.200234684</v>
       </c>
       <c r="E137" t="n">
-        <v>421195.6634519474</v>
+        <v>421178.6666240583</v>
       </c>
       <c r="F137" t="n">
-        <v>7573738.786388792</v>
+        <v>7573744.422784523</v>
       </c>
       <c r="G137" t="n">
         <v>1</v>
@@ -7166,13 +7166,13 @@
         <v>-86.83115031570196</v>
       </c>
       <c r="L137" t="n">
-        <v>54.30849392979871</v>
+        <v>37.31166604062309</v>
       </c>
       <c r="M137" t="n">
-        <v>-161.4138458920643</v>
+        <v>-155.7774501610547</v>
       </c>
       <c r="N137" t="n">
-        <v>170.3051442516933</v>
+        <v>160.1835647043943</v>
       </c>
       <c r="O137" t="n">
         <v>87.60483223299717</v>
@@ -7192,10 +7192,10 @@
         <v>7573900.200234684</v>
       </c>
       <c r="E138" t="n">
-        <v>421145.1646922044</v>
+        <v>421131.1070318953</v>
       </c>
       <c r="F138" t="n">
-        <v>7573944.585481517</v>
+        <v>7573927.436761308</v>
       </c>
       <c r="G138" t="n">
         <v>1</v>
@@ -7215,13 +7215,13 @@
         <v>-86.83115031570196</v>
       </c>
       <c r="L138" t="n">
-        <v>3.809734186739661</v>
+        <v>-10.24792612239253</v>
       </c>
       <c r="M138" t="n">
-        <v>44.38524683285505</v>
+        <v>27.23652662429959</v>
       </c>
       <c r="N138" t="n">
-        <v>44.54844790772269</v>
+        <v>29.10065931153786</v>
       </c>
       <c r="O138" t="n">
         <v>87.60483223299717</v>
@@ -7241,10 +7241,10 @@
         <v>7573900.200234684</v>
       </c>
       <c r="E139" t="n">
-        <v>421133.3324814453</v>
+        <v>421113.7962400083</v>
       </c>
       <c r="F139" t="n">
-        <v>7573934.63290943</v>
+        <v>7573915.092253143</v>
       </c>
       <c r="G139" t="n">
         <v>1</v>
@@ -7264,13 +7264,13 @@
         <v>-86.83115031570196</v>
       </c>
       <c r="L139" t="n">
-        <v>-8.022476572310552</v>
+        <v>-27.558718009328</v>
       </c>
       <c r="M139" t="n">
-        <v>34.43267474602908</v>
+        <v>14.89201845880598</v>
       </c>
       <c r="N139" t="n">
-        <v>35.35490376905445</v>
+        <v>31.3249924516364</v>
       </c>
       <c r="O139" t="n">
         <v>87.60483223299717</v>
@@ -7290,10 +7290,10 @@
         <v>7573889.477154691</v>
       </c>
       <c r="E140" t="n">
-        <v>421154.2051794408</v>
+        <v>421149.7043334765</v>
       </c>
       <c r="F140" t="n">
-        <v>7573981.744591674</v>
+        <v>7573969.65580527</v>
       </c>
       <c r="G140" t="n">
         <v>1</v>
@@ -7313,13 +7313,13 @@
         <v>-97.55423030909151</v>
       </c>
       <c r="L140" t="n">
-        <v>-34.50321215461008</v>
+        <v>-39.00405811896781</v>
       </c>
       <c r="M140" t="n">
-        <v>92.26743698306382</v>
+        <v>80.17865057941526</v>
       </c>
       <c r="N140" t="n">
-        <v>98.50762192038587</v>
+        <v>89.16239430658973</v>
       </c>
       <c r="O140" t="n">
         <v>113.992791523481</v>
@@ -7339,10 +7339,10 @@
         <v>7573889.477154691</v>
       </c>
       <c r="E141" t="n">
-        <v>421149.697222327</v>
+        <v>421134.6871254367</v>
       </c>
       <c r="F141" t="n">
-        <v>7573963.060137766</v>
+        <v>7573959.65426921</v>
       </c>
       <c r="G141" t="n">
         <v>1</v>
@@ -7362,13 +7362,13 @@
         <v>-97.55423030909151</v>
       </c>
       <c r="L141" t="n">
-        <v>-39.01116926845862</v>
+        <v>-54.0212661587866</v>
       </c>
       <c r="M141" t="n">
-        <v>73.5829830756411</v>
+        <v>70.17711451929063</v>
       </c>
       <c r="N141" t="n">
-        <v>83.28461278052755</v>
+        <v>88.56141710503562</v>
       </c>
       <c r="O141" t="n">
         <v>113.992791523481</v>
@@ -7388,10 +7388,10 @@
         <v>7573889.477154691</v>
       </c>
       <c r="E142" t="n">
-        <v>421210.0494369729</v>
+        <v>421207.1909893036</v>
       </c>
       <c r="F142" t="n">
-        <v>7574015.013501627</v>
+        <v>7573976.269934488</v>
       </c>
       <c r="G142" t="n">
         <v>1</v>
@@ -7411,13 +7411,13 @@
         <v>-97.55423030909151</v>
       </c>
       <c r="L142" t="n">
-        <v>21.34104537748499</v>
+        <v>18.48259770812001</v>
       </c>
       <c r="M142" t="n">
-        <v>125.5363469365984</v>
+        <v>86.7927797967568</v>
       </c>
       <c r="N142" t="n">
-        <v>127.337404638189</v>
+        <v>88.73890377330858</v>
       </c>
       <c r="O142" t="n">
         <v>113.992791523481</v>
@@ -7437,10 +7437,10 @@
         <v>7573841.210708896</v>
       </c>
       <c r="E143" t="n">
-        <v>421137.3984461717</v>
+        <v>421131.0774040251</v>
       </c>
       <c r="F143" t="n">
-        <v>7573696.330354063</v>
+        <v>7573667.858023134</v>
       </c>
       <c r="G143" t="n">
         <v>1</v>
@@ -7460,13 +7460,13 @@
         <v>-145.8206761041656</v>
       </c>
       <c r="L143" t="n">
-        <v>-139.6436022499111</v>
+        <v>-145.9646443965612</v>
       </c>
       <c r="M143" t="n">
-        <v>-144.8803548328578</v>
+        <v>-173.352685761638</v>
       </c>
       <c r="N143" t="n">
-        <v>201.2228934933254</v>
+        <v>226.6204559932482</v>
       </c>
       <c r="O143" t="n">
         <v>207.2732644944556</v>
@@ -7486,10 +7486,10 @@
         <v>7573841.210708896</v>
       </c>
       <c r="E144" t="n">
-        <v>421214.845016415</v>
+        <v>421160.112045869</v>
       </c>
       <c r="F144" t="n">
-        <v>7573630.496489948</v>
+        <v>7573653.399362389</v>
       </c>
       <c r="G144" t="n">
         <v>1</v>
@@ -7509,13 +7509,13 @@
         <v>-145.8206761041656</v>
       </c>
       <c r="L144" t="n">
-        <v>-62.19703200663207</v>
+        <v>-116.9300025526318</v>
       </c>
       <c r="M144" t="n">
-        <v>-210.7142189480364</v>
+        <v>-187.8113465066999</v>
       </c>
       <c r="N144" t="n">
-        <v>219.7019637083725</v>
+        <v>221.2368128807188</v>
       </c>
       <c r="O144" t="n">
         <v>207.2732644944556</v>
@@ -7535,10 +7535,10 @@
         <v>7573743.815915435</v>
       </c>
       <c r="E145" t="n">
-        <v>421152.6472055363</v>
+        <v>421128.4737890089</v>
       </c>
       <c r="F145" t="n">
-        <v>7573980.86171093</v>
+        <v>7573968.528252427</v>
       </c>
       <c r="G145" t="n">
         <v>1</v>
@@ -7558,13 +7558,13 @@
         <v>-243.2154695652425</v>
       </c>
       <c r="L145" t="n">
-        <v>138.9866937694023</v>
+        <v>114.8132772420067</v>
       </c>
       <c r="M145" t="n">
-        <v>237.0457954956219</v>
+        <v>224.7123369928449</v>
       </c>
       <c r="N145" t="n">
-        <v>274.7872089583171</v>
+        <v>252.3444531346703</v>
       </c>
       <c r="O145" t="n">
         <v>269.4952790421774</v>
@@ -7584,10 +7584,10 @@
         <v>7573743.815915435</v>
       </c>
       <c r="E146" t="n">
-        <v>420802.1250808229</v>
+        <v>420834.1311117288</v>
       </c>
       <c r="F146" t="n">
-        <v>7574059.727803869</v>
+        <v>7573992.923658589</v>
       </c>
       <c r="G146" t="n">
         <v>1</v>
@@ -7607,13 +7607,13 @@
         <v>-243.2154695652425</v>
       </c>
       <c r="L146" t="n">
-        <v>-211.535430944059</v>
+        <v>-179.5294000381255</v>
       </c>
       <c r="M146" t="n">
-        <v>315.9118884345517</v>
+        <v>249.1077431542799</v>
       </c>
       <c r="N146" t="n">
-        <v>380.1941080539957</v>
+        <v>307.0593968232661</v>
       </c>
       <c r="O146" t="n">
         <v>269.4952790421774</v>
@@ -7633,10 +7633,10 @@
         <v>7573743.815915435</v>
       </c>
       <c r="E147" t="n">
-        <v>421221.8918203269</v>
+        <v>421202.8097289351</v>
       </c>
       <c r="F147" t="n">
-        <v>7573756.300567185</v>
+        <v>7573795.984082035</v>
       </c>
       <c r="G147" t="n">
         <v>1</v>
@@ -7656,13 +7656,13 @@
         <v>-243.2154695652425</v>
       </c>
       <c r="L147" t="n">
-        <v>208.2313085600035</v>
+        <v>189.1492171682185</v>
       </c>
       <c r="M147" t="n">
-        <v>12.48465174995363</v>
+        <v>52.16816660016775</v>
       </c>
       <c r="N147" t="n">
-        <v>208.6052357778419</v>
+        <v>196.2114776504492</v>
       </c>
       <c r="O147" t="n">
         <v>269.4952790421774</v>
@@ -7682,10 +7682,10 @@
         <v>7573743.815915435</v>
       </c>
       <c r="E148" t="n">
-        <v>421130.6461464209</v>
+        <v>421120.5227821285</v>
       </c>
       <c r="F148" t="n">
-        <v>7573869.358053366</v>
+        <v>7573853.893053565</v>
       </c>
       <c r="G148" t="n">
         <v>1</v>
@@ -7705,13 +7705,13 @@
         <v>-243.2154695652425</v>
       </c>
       <c r="L148" t="n">
-        <v>116.9856346539455</v>
+        <v>106.8622703616275</v>
       </c>
       <c r="M148" t="n">
-        <v>125.542137931101</v>
+        <v>110.0771381305531</v>
       </c>
       <c r="N148" t="n">
-        <v>171.5997293462259</v>
+        <v>153.4161698317828</v>
       </c>
       <c r="O148" t="n">
         <v>269.4952790421774</v>
@@ -7731,10 +7731,10 @@
         <v>7573723.219214113</v>
       </c>
       <c r="E149" t="n">
-        <v>421207.6602022752</v>
+        <v>421120.7346620115</v>
       </c>
       <c r="F149" t="n">
-        <v>7573675.772782331</v>
+        <v>7573673.0857515</v>
       </c>
       <c r="G149" t="n">
         <v>1</v>
@@ -7754,13 +7754,13 @@
         <v>-263.8121708864346</v>
       </c>
       <c r="L149" t="n">
-        <v>62.22243879345478</v>
+        <v>-24.70310147025157</v>
       </c>
       <c r="M149" t="n">
-        <v>-47.44643178209662</v>
+        <v>-50.1334626134485</v>
       </c>
       <c r="N149" t="n">
-        <v>78.24829568916103</v>
+        <v>55.88924132481657</v>
       </c>
       <c r="O149" t="n">
         <v>264.2789242965521</v>
@@ -7780,10 +7780,10 @@
         <v>7573723.219214113</v>
       </c>
       <c r="E150" t="n">
-        <v>421170.5667744167</v>
+        <v>421151.9525454062</v>
       </c>
       <c r="F150" t="n">
-        <v>7573833.4205231</v>
+        <v>7573768.043571763</v>
       </c>
       <c r="G150" t="n">
         <v>1</v>
@@ -7803,13 +7803,13 @@
         <v>-263.8121708864346</v>
       </c>
       <c r="L150" t="n">
-        <v>25.12901093490655</v>
+        <v>6.514781924430281</v>
       </c>
       <c r="M150" t="n">
-        <v>110.2013089861721</v>
+        <v>44.82435764931142</v>
       </c>
       <c r="N150" t="n">
-        <v>113.030065437619</v>
+        <v>45.29531346835197</v>
       </c>
       <c r="O150" t="n">
         <v>264.2789242965521</v>
@@ -7829,10 +7829,10 @@
         <v>7573680.618107362</v>
       </c>
       <c r="E151" t="n">
-        <v>421095.2922502053</v>
+        <v>421053.2051800425</v>
       </c>
       <c r="F151" t="n">
-        <v>7573627.802057489</v>
+        <v>7573647.728216449</v>
       </c>
       <c r="G151" t="n">
         <v>1</v>
@@ -7852,13 +7852,13 @@
         <v>-306.4132776381448</v>
       </c>
       <c r="L151" t="n">
-        <v>-53.45586848974926</v>
+        <v>-95.54293865256477</v>
       </c>
       <c r="M151" t="n">
-        <v>-52.81604987289757</v>
+        <v>-32.88989091292024</v>
       </c>
       <c r="N151" t="n">
-        <v>75.14695602730539</v>
+        <v>101.0455246442491</v>
       </c>
       <c r="O151" t="n">
         <v>307.0024239049048</v>
@@ -7878,10 +7878,10 @@
         <v>7573680.618107362</v>
       </c>
       <c r="E152" t="n">
-        <v>421190.8077294003</v>
+        <v>421162.0024061373</v>
       </c>
       <c r="F152" t="n">
-        <v>7573699.527093403</v>
+        <v>7573726.500139357</v>
       </c>
       <c r="G152" t="n">
         <v>1</v>
@@ -7901,13 +7901,13 @@
         <v>-306.4132776381448</v>
       </c>
       <c r="L152" t="n">
-        <v>42.05961070529884</v>
+        <v>13.25428744225064</v>
       </c>
       <c r="M152" t="n">
-        <v>18.90898604132235</v>
+        <v>45.8820319948718</v>
       </c>
       <c r="N152" t="n">
-        <v>46.11464632621844</v>
+        <v>47.7581092127844</v>
       </c>
       <c r="O152" t="n">
         <v>307.0024239049048</v>
@@ -7927,10 +7927,10 @@
         <v>7573680.618107362</v>
       </c>
       <c r="E153" t="n">
-        <v>421157.4744253723</v>
+        <v>421135.33529345</v>
       </c>
       <c r="F153" t="n">
-        <v>7573742.478862289</v>
+        <v>7573767.026737489</v>
       </c>
       <c r="G153" t="n">
         <v>1</v>
@@ -7950,13 +7950,13 @@
         <v>-306.4132776381448</v>
       </c>
       <c r="L153" t="n">
-        <v>8.72630667721387</v>
+        <v>-13.41282524500275</v>
       </c>
       <c r="M153" t="n">
-        <v>61.86075492762029</v>
+        <v>86.40863012708724</v>
       </c>
       <c r="N153" t="n">
-        <v>62.47320568403615</v>
+        <v>87.44344024278065</v>
       </c>
       <c r="O153" t="n">
         <v>307.0024239049048</v>
@@ -7976,10 +7976,10 @@
         <v>7573680.618107362</v>
       </c>
       <c r="E154" t="n">
-        <v>421146.8784778732</v>
+        <v>421129.1624113253</v>
       </c>
       <c r="F154" t="n">
-        <v>7573674.823332127</v>
+        <v>7573688.916956406</v>
       </c>
       <c r="G154" t="n">
         <v>1</v>
@@ -7999,13 +7999,13 @@
         <v>-306.4132776381448</v>
       </c>
       <c r="L154" t="n">
-        <v>-1.869640821882058</v>
+        <v>-19.58570736978436</v>
       </c>
       <c r="M154" t="n">
-        <v>-5.794775234535336</v>
+        <v>8.298849044367671</v>
       </c>
       <c r="N154" t="n">
-        <v>6.088922468026004</v>
+        <v>21.27136170149969</v>
       </c>
       <c r="O154" t="n">
         <v>307.0024239049048</v>
@@ -8025,10 +8025,10 @@
         <v>7573680.618107362</v>
       </c>
       <c r="E155" t="n">
-        <v>421156.2896326059</v>
+        <v>421125.9456797924</v>
       </c>
       <c r="F155" t="n">
-        <v>7573722.190221847</v>
+        <v>7573738.308056588</v>
       </c>
       <c r="G155" t="n">
         <v>1</v>
@@ -8048,13 +8048,13 @@
         <v>-306.4132776381448</v>
       </c>
       <c r="L155" t="n">
-        <v>7.541513910808135</v>
+        <v>-22.80243890266865</v>
       </c>
       <c r="M155" t="n">
-        <v>41.57211448531598</v>
+        <v>57.68994922656566</v>
       </c>
       <c r="N155" t="n">
-        <v>42.25062289300752</v>
+        <v>62.03290628105103</v>
       </c>
       <c r="O155" t="n">
         <v>307.0024239049048</v>
@@ -8074,10 +8074,10 @@
         <v>7573680.618107362</v>
       </c>
       <c r="E156" t="n">
-        <v>421203.5790924584</v>
+        <v>421138.2904401242</v>
       </c>
       <c r="F156" t="n">
-        <v>7573720.28399373</v>
+        <v>7573721.337708106</v>
       </c>
       <c r="G156" t="n">
         <v>1</v>
@@ -8097,13 +8097,13 @@
         <v>-306.4132776381448</v>
       </c>
       <c r="L156" t="n">
-        <v>54.83097376336809</v>
+        <v>-10.45767857081955</v>
       </c>
       <c r="M156" t="n">
-        <v>39.66588636860251</v>
+        <v>40.71960074454546</v>
       </c>
       <c r="N156" t="n">
-        <v>67.67435426545308</v>
+        <v>42.04103859190167</v>
       </c>
       <c r="O156" t="n">
         <v>307.0024239049048</v>
@@ -8123,10 +8123,10 @@
         <v>7573657.736952459</v>
       </c>
       <c r="E157" t="n">
-        <v>421119.8187819985</v>
+        <v>421072.1703105381</v>
       </c>
       <c r="F157" t="n">
-        <v>7573691.10056264</v>
+        <v>7573695.107523586</v>
       </c>
       <c r="G157" t="n">
         <v>1</v>
@@ -8146,13 +8146,13 @@
         <v>-329.2944325413555</v>
       </c>
       <c r="L157" t="n">
-        <v>97.7768316193833</v>
+        <v>50.12836015899666</v>
       </c>
       <c r="M157" t="n">
-        <v>33.36361018102616</v>
+        <v>37.37057112716138</v>
       </c>
       <c r="N157" t="n">
-        <v>103.3123384975711</v>
+        <v>62.52529151151805</v>
       </c>
       <c r="O157" t="n">
         <v>346.4581114506526</v>
@@ -8172,10 +8172,10 @@
         <v>7573657.736952459</v>
       </c>
       <c r="E158" t="n">
-        <v>421127.2031351838</v>
+        <v>421122.5958185023</v>
       </c>
       <c r="F158" t="n">
-        <v>7573739.362314944</v>
+        <v>7573733.067031479</v>
       </c>
       <c r="G158" t="n">
         <v>1</v>
@@ -8195,13 +8195,13 @@
         <v>-329.2944325413555</v>
       </c>
       <c r="L158" t="n">
-        <v>105.1611848046305</v>
+        <v>100.5538681231556</v>
       </c>
       <c r="M158" t="n">
-        <v>81.6253624856472</v>
+        <v>75.33007902093232</v>
       </c>
       <c r="N158" t="n">
-        <v>133.1224045396827</v>
+        <v>125.6411604524125</v>
       </c>
       <c r="O158" t="n">
         <v>346.4581114506526</v>
@@ -8221,10 +8221,10 @@
         <v>7575954.708527632</v>
       </c>
       <c r="E159" t="n">
-        <v>424598.2461804408</v>
+        <v>424661.7103501625</v>
       </c>
       <c r="F159" t="n">
-        <v>7576227.314761604</v>
+        <v>7576166.803182407</v>
       </c>
       <c r="G159" t="n">
         <v>7</v>
@@ -8244,13 +8244,13 @@
         <v>4.206331346450107</v>
       </c>
       <c r="L159" t="n">
-        <v>-3.366123608313501</v>
+        <v>60.09804611344589</v>
       </c>
       <c r="M159" t="n">
-        <v>272.6062339721248</v>
+        <v>212.0946547752246</v>
       </c>
       <c r="N159" t="n">
-        <v>272.6270155149912</v>
+        <v>220.444817881654</v>
       </c>
       <c r="O159" t="n">
         <v>750.2996260564154</v>
@@ -8270,10 +8270,10 @@
         <v>7575954.708527632</v>
       </c>
       <c r="E160" t="n">
-        <v>424438.3741148788</v>
+        <v>424481.1543864352</v>
       </c>
       <c r="F160" t="n">
-        <v>7576117.185852546</v>
+        <v>7576058.925708018</v>
       </c>
       <c r="G160" t="n">
         <v>8</v>
@@ -8293,13 +8293,13 @@
         <v>185.3827432570979</v>
       </c>
       <c r="L160" t="n">
-        <v>-163.2381891703117</v>
+        <v>-120.4579176138504</v>
       </c>
       <c r="M160" t="n">
-        <v>162.4773249141872</v>
+        <v>104.2171803861856</v>
       </c>
       <c r="N160" t="n">
-        <v>230.3162771383577</v>
+        <v>159.2838052141897</v>
       </c>
       <c r="O160" t="n">
         <v>1060.240461805684</v>
@@ -8319,10 +8319,10 @@
         <v>7575954.708527632</v>
       </c>
       <c r="E161" t="n">
-        <v>424462.0003479947</v>
+        <v>424519.9149363706</v>
       </c>
       <c r="F161" t="n">
-        <v>7576194.523979662</v>
+        <v>7576108.359717713</v>
       </c>
       <c r="G161" t="n">
         <v>7</v>
@@ -8342,13 +8342,13 @@
         <v>171.753767632081</v>
       </c>
       <c r="L161" t="n">
-        <v>-139.6119560543448</v>
+        <v>-81.69736767851282</v>
       </c>
       <c r="M161" t="n">
-        <v>239.8154520299286</v>
+        <v>153.65119008068</v>
       </c>
       <c r="N161" t="n">
-        <v>277.4940527392241</v>
+        <v>174.0205393015645</v>
       </c>
       <c r="O161" t="n">
         <v>971.8355815744785</v>
@@ -8368,10 +8368,10 @@
         <v>7573810.479657556</v>
       </c>
       <c r="E162" t="n">
-        <v>421579.5132963106</v>
+        <v>421497.5622258614</v>
       </c>
       <c r="F162" t="n">
-        <v>7573734.521201888</v>
+        <v>7573731.400564578</v>
       </c>
       <c r="G162" t="n">
         <v>1</v>
@@ -8391,13 +8391,13 @@
         <v>-176.5517274439335</v>
       </c>
       <c r="L162" t="n">
-        <v>360.7719354042783</v>
+        <v>278.8208649551379</v>
       </c>
       <c r="M162" t="n">
-        <v>-75.958455667831</v>
+        <v>-79.07909297756851</v>
       </c>
       <c r="N162" t="n">
-        <v>368.6815378653922</v>
+        <v>289.8181803829535</v>
       </c>
       <c r="O162" t="n">
         <v>197.7173317929186</v>
@@ -8417,10 +8417,10 @@
         <v>7573810.479657556</v>
       </c>
       <c r="E163" t="n">
-        <v>421660.1276245922</v>
+        <v>421566.7089986322</v>
       </c>
       <c r="F163" t="n">
-        <v>7573689.64491953</v>
+        <v>7573732.524643593</v>
       </c>
       <c r="G163" t="n">
         <v>1</v>
@@ -8440,13 +8440,13 @@
         <v>-176.5517274439335</v>
       </c>
       <c r="L163" t="n">
-        <v>441.3862636859412</v>
+        <v>347.9676377258729</v>
       </c>
       <c r="M163" t="n">
-        <v>-120.8347380254418</v>
+        <v>-77.95501396339387</v>
       </c>
       <c r="N163" t="n">
-        <v>457.6274332733041</v>
+        <v>356.592850610549</v>
       </c>
       <c r="O163" t="n">
         <v>197.7173317929186</v>
@@ -8466,10 +8466,10 @@
         <v>7573810.479657556</v>
       </c>
       <c r="E164" t="n">
-        <v>421324.6856039892</v>
+        <v>421305.6967049701</v>
       </c>
       <c r="F164" t="n">
-        <v>7573767.825274703</v>
+        <v>7573770.961820657</v>
       </c>
       <c r="G164" t="n">
         <v>1</v>
@@ -8489,13 +8489,13 @@
         <v>-176.5517274439335</v>
       </c>
       <c r="L164" t="n">
-        <v>105.9442430828931</v>
+        <v>86.95534406387014</v>
       </c>
       <c r="M164" t="n">
-        <v>-42.65438285283744</v>
+        <v>-39.51783689856529</v>
       </c>
       <c r="N164" t="n">
-        <v>114.2084892596149</v>
+        <v>95.5138277654479</v>
       </c>
       <c r="O164" t="n">
         <v>197.7173317929186</v>
@@ -8515,10 +8515,10 @@
         <v>7573810.479657556</v>
       </c>
       <c r="E165" t="n">
-        <v>421246.4780192914</v>
+        <v>421115.1392186139</v>
       </c>
       <c r="F165" t="n">
-        <v>7573937.720271039</v>
+        <v>7573901.262771307</v>
       </c>
       <c r="G165" t="n">
         <v>1</v>
@@ -8538,13 +8538,13 @@
         <v>-176.5517274439335</v>
       </c>
       <c r="L165" t="n">
-        <v>27.73665838513989</v>
+        <v>-103.6021422924241</v>
       </c>
       <c r="M165" t="n">
-        <v>127.2406134828925</v>
+        <v>90.78311375156045</v>
       </c>
       <c r="N165" t="n">
-        <v>130.2286294862877</v>
+        <v>137.74969194161</v>
       </c>
       <c r="O165" t="n">
         <v>197.7173317929186</v>
@@ -8564,10 +8564,10 @@
         <v>7573810.479657556</v>
       </c>
       <c r="E166" t="n">
-        <v>421212.9663038341</v>
+        <v>421194.3632311753</v>
       </c>
       <c r="F166" t="n">
-        <v>7573900.619876924</v>
+        <v>7573885.721508918</v>
       </c>
       <c r="G166" t="n">
         <v>1</v>
@@ -8587,13 +8587,13 @@
         <v>-176.5517274439335</v>
       </c>
       <c r="L166" t="n">
-        <v>-5.775057072169147</v>
+        <v>-24.37812973099062</v>
       </c>
       <c r="M166" t="n">
-        <v>90.14021936804056</v>
+        <v>75.24185136239976</v>
       </c>
       <c r="N166" t="n">
-        <v>90.32502660893761</v>
+        <v>79.09253697803901</v>
       </c>
       <c r="O166" t="n">
         <v>197.7173317929186</v>
@@ -8613,10 +8613,10 @@
         <v>7573810.479657556</v>
       </c>
       <c r="E167" t="n">
-        <v>421204.4099605666</v>
+        <v>421198.9431831473</v>
       </c>
       <c r="F167" t="n">
-        <v>7573922.208479903</v>
+        <v>7573927.029084971</v>
       </c>
       <c r="G167" t="n">
         <v>1</v>
@@ -8636,13 +8636,13 @@
         <v>-176.5517274439335</v>
       </c>
       <c r="L167" t="n">
-        <v>-14.33140033966629</v>
+        <v>-19.79817775893025</v>
       </c>
       <c r="M167" t="n">
-        <v>111.7288223467767</v>
+        <v>116.5494274152443</v>
       </c>
       <c r="N167" t="n">
-        <v>112.6442132499197</v>
+        <v>118.2190207766732</v>
       </c>
       <c r="O167" t="n">
         <v>197.7173317929186</v>
@@ -8662,10 +8662,10 @@
         <v>7573810.479657556</v>
       </c>
       <c r="E168" t="n">
-        <v>421192.3902119301</v>
+        <v>421184.0521951295</v>
       </c>
       <c r="F168" t="n">
-        <v>7574007.230329097</v>
+        <v>7573953.520941688</v>
       </c>
       <c r="G168" t="n">
         <v>1</v>
@@ -8685,13 +8685,13 @@
         <v>-176.5517274439335</v>
       </c>
       <c r="L168" t="n">
-        <v>-26.35114897618769</v>
+        <v>-34.6891657767701</v>
       </c>
       <c r="M168" t="n">
-        <v>196.7506715413183</v>
+        <v>143.0412841318175</v>
       </c>
       <c r="N168" t="n">
-        <v>198.507455286508</v>
+        <v>147.187455947739</v>
       </c>
       <c r="O168" t="n">
         <v>197.7173317929186</v>
@@ -8711,10 +8711,10 @@
         <v>7574008.755178696</v>
       </c>
       <c r="E169" t="n">
-        <v>421173.9342568358</v>
+        <v>421154.0992179136</v>
       </c>
       <c r="F169" t="n">
-        <v>7573916.237728272</v>
+        <v>7573896.141434308</v>
       </c>
       <c r="G169" t="n">
         <v>1</v>
@@ -8734,13 +8734,13 @@
         <v>21.72379369661212</v>
       </c>
       <c r="L169" t="n">
-        <v>-48.98455521289725</v>
+        <v>-68.81959413510049</v>
       </c>
       <c r="M169" t="n">
-        <v>-92.51745042484254</v>
+        <v>-112.6137443883345</v>
       </c>
       <c r="N169" t="n">
-        <v>104.6850766944294</v>
+        <v>131.9772403184772</v>
       </c>
       <c r="O169" t="n">
         <v>95.67978391929492</v>
@@ -8760,10 +8760,10 @@
         <v>7574008.755178696</v>
       </c>
       <c r="E170" t="n">
-        <v>421198.6420430773</v>
+        <v>421184.728687843</v>
       </c>
       <c r="F170" t="n">
-        <v>7573937.067012794</v>
+        <v>7573928.393729495</v>
       </c>
       <c r="G170" t="n">
         <v>1</v>
@@ -8783,13 +8783,13 @@
         <v>21.72379369661212</v>
       </c>
       <c r="L170" t="n">
-        <v>-24.27676897146739</v>
+        <v>-38.19012420572108</v>
       </c>
       <c r="M170" t="n">
-        <v>-71.68816590216011</v>
+        <v>-80.36144920159131</v>
       </c>
       <c r="N170" t="n">
-        <v>75.68721584329572</v>
+        <v>88.97442387915947</v>
       </c>
       <c r="O170" t="n">
         <v>95.67978391929492</v>
@@ -8809,10 +8809,10 @@
         <v>7574008.755178696</v>
       </c>
       <c r="E171" t="n">
-        <v>421181.5722901078</v>
+        <v>421141.4423955292</v>
       </c>
       <c r="F171" t="n">
-        <v>7573674.508318717</v>
+        <v>7573685.347658524</v>
       </c>
       <c r="G171" t="n">
         <v>1</v>
@@ -8832,13 +8832,13 @@
         <v>21.72379369661212</v>
       </c>
       <c r="L171" t="n">
-        <v>-41.34652194089722</v>
+        <v>-81.476416519552</v>
       </c>
       <c r="M171" t="n">
-        <v>-334.2468599798158</v>
+        <v>-323.4075201721862</v>
       </c>
       <c r="N171" t="n">
-        <v>336.7944451486331</v>
+        <v>333.5128641488819</v>
       </c>
       <c r="O171" t="n">
         <v>95.67978391929492</v>
@@ -8858,10 +8858,10 @@
         <v>7574008.755178696</v>
       </c>
       <c r="E172" t="n">
-        <v>421161.1185402122</v>
+        <v>421136.1762261069</v>
       </c>
       <c r="F172" t="n">
-        <v>7573656.645274486</v>
+        <v>7573662.404080555</v>
       </c>
       <c r="G172" t="n">
         <v>1</v>
@@ -8881,13 +8881,13 @@
         <v>21.72379369661212</v>
       </c>
       <c r="L172" t="n">
-        <v>-61.80027183657512</v>
+        <v>-86.74258594185812</v>
       </c>
       <c r="M172" t="n">
-        <v>-352.1099042100832</v>
+        <v>-346.351098141633</v>
       </c>
       <c r="N172" t="n">
-        <v>357.492179273769</v>
+        <v>357.0481191657445</v>
       </c>
       <c r="O172" t="n">
         <v>95.67978391929492</v>
@@ -8907,10 +8907,10 @@
         <v>7573964.485934421</v>
       </c>
       <c r="E173" t="n">
-        <v>421116.0646141373</v>
+        <v>421087.2433903217</v>
       </c>
       <c r="F173" t="n">
-        <v>7573965.904160187</v>
+        <v>7573934.33657843</v>
       </c>
       <c r="G173" t="n">
         <v>1</v>
@@ -8930,13 +8930,13 @@
         <v>-22.54545057844371</v>
       </c>
       <c r="L173" t="n">
-        <v>47.01292357093189</v>
+        <v>18.19169975537807</v>
       </c>
       <c r="M173" t="n">
-        <v>1.418225765228271</v>
+        <v>-30.14935599174351</v>
       </c>
       <c r="N173" t="n">
-        <v>47.03431031712319</v>
+        <v>35.2125205957583</v>
       </c>
       <c r="O173" t="n">
         <v>64.73873093680069</v>
@@ -8956,10 +8956,10 @@
         <v>7573964.485934421</v>
       </c>
       <c r="E174" t="n">
-        <v>421123.5323261978</v>
+        <v>421111.0246971089</v>
       </c>
       <c r="F174" t="n">
-        <v>7573946.266572058</v>
+        <v>7573912.01295338</v>
       </c>
       <c r="G174" t="n">
         <v>1</v>
@@ -8979,13 +8979,13 @@
         <v>-22.54545057844371</v>
       </c>
       <c r="L174" t="n">
-        <v>54.48063563148025</v>
+        <v>41.97300654253922</v>
       </c>
       <c r="M174" t="n">
-        <v>-18.21936236321926</v>
+        <v>-52.47298104129732</v>
       </c>
       <c r="N174" t="n">
-        <v>57.44636475646136</v>
+        <v>67.19484368298201</v>
       </c>
       <c r="O174" t="n">
         <v>64.73873093680069</v>
@@ -9005,10 +9005,10 @@
         <v>7573680.891654283</v>
       </c>
       <c r="E175" t="n">
-        <v>421072.5544469535</v>
+        <v>421053.0698218868</v>
       </c>
       <c r="F175" t="n">
-        <v>7573689.872011843</v>
+        <v>7573670.298875361</v>
       </c>
       <c r="G175" t="n">
         <v>1</v>
@@ -9028,13 +9028,13 @@
         <v>-306.1397307170555</v>
       </c>
       <c r="L175" t="n">
-        <v>-42.2152159800753</v>
+        <v>-61.69984104676405</v>
       </c>
       <c r="M175" t="n">
-        <v>8.980357560329139</v>
+        <v>-10.59277892205864</v>
       </c>
       <c r="N175" t="n">
-        <v>43.15983413030877</v>
+        <v>62.60253469698779</v>
       </c>
       <c r="O175" t="n">
         <v>306.5054328387463</v>
@@ -9054,10 +9054,10 @@
         <v>7573680.891654283</v>
       </c>
       <c r="E176" t="n">
-        <v>421164.4388480398</v>
+        <v>421128.7817816662</v>
       </c>
       <c r="F176" t="n">
-        <v>7573760.0259283</v>
+        <v>7573780.323104887</v>
       </c>
       <c r="G176" t="n">
         <v>1</v>
@@ -9077,13 +9077,13 @@
         <v>-306.1397307170555</v>
       </c>
       <c r="L176" t="n">
-        <v>49.66918510623509</v>
+        <v>14.01211873261491</v>
       </c>
       <c r="M176" t="n">
-        <v>79.13427401706576</v>
+        <v>99.43145060446113</v>
       </c>
       <c r="N176" t="n">
-        <v>93.43051575007759</v>
+        <v>100.4139076058904</v>
       </c>
       <c r="O176" t="n">
         <v>306.5054328387463</v>
@@ -9103,10 +9103,10 @@
         <v>7573680.891654283</v>
       </c>
       <c r="E177" t="n">
-        <v>421123.7899263485</v>
+        <v>421162.01115929</v>
       </c>
       <c r="F177" t="n">
-        <v>7573671.30584668</v>
+        <v>7573686.396730375</v>
       </c>
       <c r="G177" t="n">
         <v>1</v>
@@ -9126,13 +9126,13 @@
         <v>-306.1397307170555</v>
       </c>
       <c r="L177" t="n">
-        <v>9.020263414946385</v>
+        <v>47.24149635637878</v>
       </c>
       <c r="M177" t="n">
-        <v>-9.585807602852583</v>
+        <v>5.505076092667878</v>
       </c>
       <c r="N177" t="n">
-        <v>13.16255520307234</v>
+        <v>47.56116946392101</v>
       </c>
       <c r="O177" t="n">
         <v>306.5054328387463</v>
